--- a/notebooks/train_data.xlsx
+++ b/notebooks/train_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -701,218 +701,8192 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44458.10416666666</v>
+        <v>43446.16666666666</v>
       </c>
       <c r="B7" t="n">
-        <v>1696232</v>
+        <v>1621090</v>
       </c>
       <c r="C7" t="n">
-        <v>143856709</v>
+        <v>26606869</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>../recordings/2021/09/19/recordings_1696232_143856709_20210919_023000.wav</t>
+          <t>../recordings/2018/12/12/recordings_1621090_26606869_20181212_040000.wav</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>SW9</t>
+          <t>SL1</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>ZSSPRV01</t>
+          <t>ZSTKWD45</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="I7" t="n">
-        <v>4</v>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>Service Pipe</t>
-        </is>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Unstructured audio files/2021/09/19/recordings_1696232_143856709_20210919_023000.wav</t>
+          <t>Unstructured audio files/2018/12/12/recordings_1621090_26606869_20181212_040000.wav</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44314.15625</v>
+        <v>43447.16666666666</v>
       </c>
       <c r="B8" t="n">
-        <v>1653598</v>
+        <v>1638185</v>
       </c>
       <c r="C8" t="n">
-        <v>120817984</v>
+        <v>26650427</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>../recordings/2021/04/28/recordings_1653598_120817984_20210428_034500.wav</t>
+          <t>../recordings/2018/12/13/recordings_1638185_26650427_20181213_040000.wav</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>W5</t>
+          <t>SL3</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>ZEALNG09</t>
+          <t>ZSTKWD16</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="I8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Unstructured audio files/2021/04/28/recordings_1653598_120817984_20210428_034500.wav</t>
+          <t>Unstructured audio files/2018/12/13/recordings_1638185_26650427_20181213_040000.wav</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>43525.15625</v>
+        <v>43447.16666666666</v>
       </c>
       <c r="B9" t="n">
-        <v>1709144</v>
+        <v>1676286</v>
       </c>
       <c r="C9" t="n">
-        <v>31620322</v>
+        <v>26656401</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>../recordings/2019/03/01/recordings_1709144_31620322_20190301_034500.wav</t>
+          <t>../recordings/2018/12/13/recordings_1676286_26656401_20181213_040000.wav</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>SE5</t>
+          <t>NW1</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>ZHOPRV02</t>
+          <t>ZSUHIL33</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="I9" t="n">
-        <v>5</v>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>Boundary Box</t>
-        </is>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Unstructured audio files/2019/03/01/recordings_1709144_31620322_20190301_034500.wav</t>
+          <t>Unstructured audio files/2018/12/13/recordings_1676286_26656401_20181213_040000.wav</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44372.15625</v>
+        <v>43447.16666666666</v>
       </c>
       <c r="B10" t="n">
-        <v>1747861</v>
+        <v>1772876</v>
       </c>
       <c r="C10" t="n">
-        <v>129938024</v>
+        <v>26695888</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>../recordings/2021/06/25/recordings_1747861_129938024_20210625_034500.wav</t>
+          <t>../recordings/2018/12/13/recordings_1772876_26695888_20181213_040000.wav</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>N21</t>
+          <t>IG10</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>ZSEWRD67</t>
+          <t>ZHGHBE04</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="I10" t="n">
-        <v>4</v>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>Service Pipe</t>
-        </is>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Unstructured audio files/2021/06/25/recordings_1747861_129938024_20210625_034500.wav</t>
+          <t>Unstructured audio files/2018/12/13/recordings_1772876_26695888_20181213_040000.wav</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>43202.15625</v>
+        <v>43447.16666666666</v>
       </c>
       <c r="B11" t="n">
-        <v>1699506</v>
+        <v>6924277</v>
       </c>
       <c r="C11" t="n">
-        <v>13769941</v>
+        <v>26700509</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>../recordings/2018/04/12/recordings_1699506_13769941_20180412_034500.wav</t>
+          <t>../recordings/2018/12/13/recordings_6924277_26700509_20181213_040000.wav</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>CR0</t>
+          <t>SL3</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>ZWWICK03</t>
+          <t>ZSTKWD17</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I11" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
+          <t>Unstructured audio files/2018/12/13/recordings_6924277_26700509_20181213_040000.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>43448.16666666666</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1652993</v>
+      </c>
+      <c r="C12" t="n">
+        <v>26712320</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>../recordings/2018/12/14/recordings_1652993_26712320_20181214_040000.wav</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>W13</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>ZEALBS07</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>17</v>
+      </c>
+      <c r="I12" t="n">
+        <v>18</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2018/12/14/recordings_1652993_26712320_20181214_040000.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>43448.16666666666</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1614266</v>
+      </c>
+      <c r="C13" t="n">
+        <v>26714031</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>../recordings/2018/12/14/recordings_1614266_26714031_20181214_040000.wav</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>HP14</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>ZSTOKE01</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2018/12/14/recordings_1614266_26714031_20181214_040000.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>43448.16666666666</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1697270</v>
+      </c>
+      <c r="C14" t="n">
+        <v>26715042</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>../recordings/2018/12/14/recordings_1697270_26715042_20181214_040000.wav</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>CR0</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>ZNORWD25</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+      <c r="I14" t="n">
+        <v>14</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2018/12/14/recordings_1697270_26715042_20181214_040000.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>43448.16666666666</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1623536</v>
+      </c>
+      <c r="C15" t="n">
+        <v>26723491</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>../recordings/2018/12/14/recordings_1623536_26723491_20181214_040000.wav</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>HP13</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>ZWIDDN15</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+      <c r="I15" t="n">
+        <v>4</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2018/12/14/recordings_1623536_26723491_20181214_040000.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>43448.16666666666</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1674795</v>
+      </c>
+      <c r="C16" t="n">
+        <v>26730521</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>../recordings/2018/12/14/recordings_1674795_26730521_20181214_040000.wav</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>NW10</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>ZSUHIL20</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>13</v>
+      </c>
+      <c r="I16" t="n">
+        <v>16</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2018/12/14/recordings_1674795_26730521_20181214_040000.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>43448.16666666666</v>
+      </c>
+      <c r="B17" t="n">
+        <v>6924062</v>
+      </c>
+      <c r="C17" t="n">
+        <v>26743943</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>../recordings/2018/12/14/recordings_6924062_26743943_20181214_040000.wav</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>SL3</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>ZSTKWD16</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>14</v>
+      </c>
+      <c r="I17" t="n">
+        <v>17</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2018/12/14/recordings_6924062_26743943_20181214_040000.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>43448.16666666666</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1785050</v>
+      </c>
+      <c r="C18" t="n">
+        <v>26749630</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>../recordings/2018/12/14/recordings_1785050_26749630_20181214_040000.wav</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>TW7</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>ZHAMCO25</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+      <c r="I18" t="n">
+        <v>5</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2018/12/14/recordings_1785050_26749630_20181214_040000.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>43450.1875</v>
+      </c>
+      <c r="B19" t="n">
+        <v>9704271</v>
+      </c>
+      <c r="C19" t="n">
+        <v>26828753</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>../recordings/2018/12/16/recordings_9704271_26828753_20181216_043000.wav</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>E5</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>ZFINSB33</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+      <c r="I19" t="n">
+        <v>5</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2018/12/16/recordings_9704271_26828753_20181216_043000.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>43450.1875</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1691703</v>
+      </c>
+      <c r="C20" t="n">
+        <v>26831156</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>../recordings/2018/12/16/recordings_1691703_26831156_20181216_043000.wav</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>SE25</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>ZNORWD19</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+      <c r="I20" t="n">
+        <v>3</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2018/12/16/recordings_1691703_26831156_20181216_043000.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>43450.1875</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1674729</v>
+      </c>
+      <c r="C21" t="n">
+        <v>26831166</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>../recordings/2018/12/16/recordings_1674729_26831166_20181216_043000.wav</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>W2</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>ZBARHT31</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+      <c r="I21" t="n">
+        <v>12</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2018/12/16/recordings_1674729_26831166_20181216_043000.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>43450.1875</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1641863</v>
+      </c>
+      <c r="C22" t="n">
+        <v>26832518</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>../recordings/2018/12/16/recordings_1641863_26832518_20181216_043000.wav</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>TW10</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>ZHAM3001</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+      <c r="I22" t="n">
+        <v>25</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2018/12/16/recordings_1641863_26832518_20181216_043000.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>43450.1875</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1639275</v>
+      </c>
+      <c r="C23" t="n">
+        <v>26833571</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>../recordings/2018/12/16/recordings_1639275_26833571_20181216_043000.wav</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>KT6</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>ZCHESS07</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+      <c r="I23" t="n">
+        <v>5</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2018/12/16/recordings_1639275_26833571_20181216_043000.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>43450.1875</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1640611</v>
+      </c>
+      <c r="C24" t="n">
+        <v>26834284</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>../recordings/2018/12/16/recordings_1640611_26834284_20181216_043000.wav</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>KT1</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>ZSUR3020</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>17</v>
+      </c>
+      <c r="I24" t="n">
+        <v>15</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2018/12/16/recordings_1640611_26834284_20181216_043000.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>43450.1875</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1701355</v>
+      </c>
+      <c r="C25" t="n">
+        <v>26835753</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>../recordings/2018/12/16/recordings_1701355_26835753_20181216_043000.wav</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>CR0</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>ZWWICK03</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+      <c r="I25" t="n">
+        <v>3</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2018/12/16/recordings_1701355_26835753_20181216_043000.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>43450.1875</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1713925</v>
+      </c>
+      <c r="C26" t="n">
+        <v>26835945</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>../recordings/2018/12/16/recordings_1713925_26835945_20181216_043000.wav</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>SE26</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>ZCRYSB11</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+      <c r="I26" t="n">
+        <v>3</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2018/12/16/recordings_1713925_26835945_20181216_043000.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>43450.1875</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1685711</v>
+      </c>
+      <c r="C27" t="n">
+        <v>26836121</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>../recordings/2018/12/16/recordings_1685711_26836121_20181216_043000.wav</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>W1K</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>ZBARHT37</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+      <c r="I27" t="n">
+        <v>3</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2018/12/16/recordings_1685711_26836121_20181216_043000.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>43450.1875</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1739801</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26838539</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>../recordings/2018/12/16/recordings_1739801_26838539_20181216_043000.wav</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>E10</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>ZWOODF28</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>22</v>
+      </c>
+      <c r="I28" t="n">
+        <v>8</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2018/12/16/recordings_1739801_26838539_20181216_043000.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>43450.1875</v>
+      </c>
+      <c r="B29" t="n">
+        <v>7087286</v>
+      </c>
+      <c r="C29" t="n">
+        <v>26838954</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>../recordings/2018/12/16/recordings_7087286_26838954_20181216_043000.wav</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>A11</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>ZWOODF11</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+      <c r="I29" t="n">
+        <v>3</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2018/12/16/recordings_7087286_26838954_20181216_043000.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>43450.1875</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1626998</v>
+      </c>
+      <c r="C30" t="n">
+        <v>26843532</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>../recordings/2018/12/16/recordings_1626998_26843532_20181216_043000.wav</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>SL1</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>ZDROPM01</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+      <c r="I30" t="n">
+        <v>3</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2018/12/16/recordings_1626998_26843532_20181216_043000.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>43450.1875</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1782043</v>
+      </c>
+      <c r="C31" t="n">
+        <v>26844293</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>../recordings/2018/12/16/recordings_1782043_26844293_20181216_043000.wav</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>DA9</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>ZELTHM21</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+      <c r="I31" t="n">
+        <v>25</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2018/12/16/recordings_1782043_26844293_20181216_043000.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>43450.1875</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1756225</v>
+      </c>
+      <c r="C32" t="n">
+        <v>26847848</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>../recordings/2018/12/16/recordings_1756225_26847848_20181216_043000.wav</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>BR2</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>ZBICLY11</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2018/12/16/recordings_1756225_26847848_20181216_043000.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>43450.1875</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1632880</v>
+      </c>
+      <c r="C33" t="n">
+        <v>26852177</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>../recordings/2018/12/16/recordings_1632880_26852177_20181216_043000.wav</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>SL2</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>ZSTKWD34</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>19</v>
+      </c>
+      <c r="I33" t="n">
+        <v>5</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2018/12/16/recordings_1632880_26852177_20181216_043000.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>43450.1875</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1638873</v>
+      </c>
+      <c r="C34" t="n">
+        <v>26854457</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>../recordings/2018/12/16/recordings_1638873_26854457_20181216_043000.wav</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>SL3</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>ZSTKWD16</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+      <c r="I34" t="n">
+        <v>12</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2018/12/16/recordings_1638873_26854457_20181216_043000.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>43450.1875</v>
+      </c>
+      <c r="B35" t="n">
+        <v>6906770</v>
+      </c>
+      <c r="C35" t="n">
+        <v>26865719</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>../recordings/2018/12/16/recordings_6906770_26865719_20181216_043000.wav</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>SL1</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>ZSTKWD19</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+      <c r="I35" t="n">
+        <v>3</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2018/12/16/recordings_6906770_26865719_20181216_043000.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>43450.1875</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1638082</v>
+      </c>
+      <c r="C36" t="n">
+        <v>26866510</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>../recordings/2018/12/16/recordings_1638082_26866510_20181216_043000.wav</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>KT6</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>ZCHESS07</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>23</v>
+      </c>
+      <c r="I36" t="n">
+        <v>11</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2018/12/16/recordings_1638082_26866510_20181216_043000.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>43450.1875</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1628425</v>
+      </c>
+      <c r="C37" t="n">
+        <v>26866827</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>../recordings/2018/12/16/recordings_1628425_26866827_20181216_043000.wav</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>SL1</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>ZSTKWD19</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+      <c r="I37" t="n">
+        <v>8</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2018/12/16/recordings_1628425_26866827_20181216_043000.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>43450.1875</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1728065</v>
+      </c>
+      <c r="C38" t="n">
+        <v>26877177</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>../recordings/2018/12/16/recordings_1728065_26877177_20181216_043000.wav</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>EC2A</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>ZCRCHH31</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>25</v>
+      </c>
+      <c r="I38" t="n">
+        <v>17</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2018/12/16/recordings_1728065_26877177_20181216_043000.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>43450.1875</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1689276</v>
+      </c>
+      <c r="C39" t="n">
+        <v>26879016</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>../recordings/2018/12/16/recordings_1689276_26879016_20181216_043000.wav</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>SW1Y</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+      <c r="I39" t="n">
+        <v>3</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2018/12/16/recordings_1689276_26879016_20181216_043000.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>43450.1875</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1714867</v>
+      </c>
+      <c r="C40" t="n">
+        <v>26879882</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>../recordings/2018/12/16/recordings_1714867_26879882_20181216_043000.wav</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>N7</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>ZMAIDL75</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+      <c r="I40" t="n">
+        <v>12</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2018/12/16/recordings_1714867_26879882_20181216_043000.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>43450.1875</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1709318</v>
+      </c>
+      <c r="C41" t="n">
+        <v>26880230</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>../recordings/2018/12/16/recordings_1709318_26880230_20181216_043000.wav</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>SE5</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>ZHOPRV02</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+      <c r="I41" t="n">
+        <v>3</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2018/12/16/recordings_1709318_26880230_20181216_043000.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>43450.1875</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1768334</v>
+      </c>
+      <c r="C42" t="n">
+        <v>26880671</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>../recordings/2018/12/16/recordings_1768334_26880671_20181216_043000.wav</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>E16</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>ZWOODF119</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>11</v>
+      </c>
+      <c r="I42" t="n">
+        <v>21</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2018/12/16/recordings_1768334_26880671_20181216_043000.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>43450.1875</v>
+      </c>
+      <c r="B43" t="n">
+        <v>1667023</v>
+      </c>
+      <c r="C43" t="n">
+        <v>26880949</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>../recordings/2018/12/16/recordings_1667023_26880949_20181216_043000.wav</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>SW3</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>ZPUTNY15</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+      <c r="I43" t="n">
+        <v>3</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2018/12/16/recordings_1667023_26880949_20181216_043000.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>43450.1875</v>
+      </c>
+      <c r="B44" t="n">
+        <v>1761873</v>
+      </c>
+      <c r="C44" t="n">
+        <v>26881630</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>../recordings/2018/12/16/recordings_1761873_26881630_20181216_043000.wav</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>SE18</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>ZRIVSE09</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>14</v>
+      </c>
+      <c r="I44" t="n">
+        <v>7</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2018/12/16/recordings_1761873_26881630_20181216_043000.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43450.1875</v>
+      </c>
+      <c r="B45" t="n">
+        <v>1758935</v>
+      </c>
+      <c r="C45" t="n">
+        <v>26881851</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>../recordings/2018/12/16/recordings_1758935_26881851_20181216_043000.wav</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>SE3</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>ZOXLWD42</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+      <c r="I45" t="n">
+        <v>3</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2018/12/16/recordings_1758935_26881851_20181216_043000.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>43450.1875</v>
+      </c>
+      <c r="B46" t="n">
+        <v>1656837</v>
+      </c>
+      <c r="C46" t="n">
+        <v>26881889</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>../recordings/2018/12/16/recordings_1656837_26881889_20181216_043000.wav</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>SW16</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>ZHAM4209</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>16</v>
+      </c>
+      <c r="I46" t="n">
+        <v>16</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2018/12/16/recordings_1656837_26881889_20181216_043000.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>43450.1875</v>
+      </c>
+      <c r="B47" t="n">
+        <v>1774910</v>
+      </c>
+      <c r="C47" t="n">
+        <v>26882023</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>../recordings/2018/12/16/recordings_1774910_26882023_20181216_043000.wav</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>IG9</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>ZCHIGW66</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+      <c r="I47" t="n">
+        <v>3</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2018/12/16/recordings_1774910_26882023_20181216_043000.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>43450.1875</v>
+      </c>
+      <c r="B48" t="n">
+        <v>1698220</v>
+      </c>
+      <c r="C48" t="n">
+        <v>26883846</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>../recordings/2018/12/16/recordings_1698220_26883846_20181216_043000.wav</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>ZNORWD25</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>23</v>
+      </c>
+      <c r="I48" t="n">
+        <v>10</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2018/12/16/recordings_1698220_26883846_20181216_043000.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>43450.1875</v>
+      </c>
+      <c r="B49" t="n">
+        <v>1704137</v>
+      </c>
+      <c r="C49" t="n">
+        <v>26884238</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>../recordings/2018/12/16/recordings_1704137_26884238_20181216_043000.wav</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>SW16</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>ZNORWD29</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+      <c r="I49" t="n">
+        <v>16</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2018/12/16/recordings_1704137_26884238_20181216_043000.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>43450.1875</v>
+      </c>
+      <c r="B50" t="n">
+        <v>1640773</v>
+      </c>
+      <c r="C50" t="n">
+        <v>26884748</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>../recordings/2018/12/16/recordings_1640773_26884748_20181216_043000.wav</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>KT1</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>ZSUR3020</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+      <c r="I50" t="n">
+        <v>11</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2018/12/16/recordings_1640773_26884748_20181216_043000.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>43450.1875</v>
+      </c>
+      <c r="B51" t="n">
+        <v>1660835</v>
+      </c>
+      <c r="C51" t="n">
+        <v>26885767</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>../recordings/2018/12/16/recordings_1660835_26885767_20181216_043000.wav</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>W14</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>ZBARHT08</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+      <c r="I51" t="n">
+        <v>3</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2018/12/16/recordings_1660835_26885767_20181216_043000.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>43450.1875</v>
+      </c>
+      <c r="B52" t="n">
+        <v>7464640</v>
+      </c>
+      <c r="C52" t="n">
+        <v>26885931</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>../recordings/2018/12/16/recordings_7464640_26885931_20181216_043000.wav</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>SE25</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>ZNORWD40</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+      <c r="I52" t="n">
+        <v>5</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2018/12/16/recordings_7464640_26885931_20181216_043000.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>43450.1875</v>
+      </c>
+      <c r="B53" t="n">
+        <v>1628937</v>
+      </c>
+      <c r="C53" t="n">
+        <v>26886030</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>../recordings/2018/12/16/recordings_1628937_26886030_20181216_043000.wav</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>SL1</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>ZSTKWD42</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+      <c r="I53" t="n">
+        <v>4</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2018/12/16/recordings_1628937_26886030_20181216_043000.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>43450.1875</v>
+      </c>
+      <c r="B54" t="n">
+        <v>1742964</v>
+      </c>
+      <c r="C54" t="n">
+        <v>26886923</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>../recordings/2018/12/16/recordings_1742964_26886923_20181216_043000.wav</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>E15</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>ZWOODF113</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>22</v>
+      </c>
+      <c r="I54" t="n">
+        <v>11</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2018/12/16/recordings_1742964_26886923_20181216_043000.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>43450.1875</v>
+      </c>
+      <c r="B55" t="n">
+        <v>1768511</v>
+      </c>
+      <c r="C55" t="n">
+        <v>26887278</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>../recordings/2018/12/16/recordings_1768511_26887278_20181216_043000.wav</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>E13</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>ZWOODF49</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+      <c r="I55" t="n">
+        <v>3</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2018/12/16/recordings_1768511_26887278_20181216_043000.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>43450.1875</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1716568</v>
+      </c>
+      <c r="C56" t="n">
+        <v>26888312</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>../recordings/2018/12/16/recordings_1716568_26888312_20181216_043000.wav</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>SE12</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>ZOXLWD25</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+      <c r="I56" t="n">
+        <v>19</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2018/12/16/recordings_1716568_26888312_20181216_043000.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>43450.1875</v>
+      </c>
+      <c r="B57" t="n">
+        <v>1721966</v>
+      </c>
+      <c r="C57" t="n">
+        <v>26888695</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>../recordings/2018/12/16/recordings_1721966_26888695_20181216_043000.wav</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>SE6</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>ZOXLWD26</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+      <c r="I57" t="n">
+        <v>3</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2018/12/16/recordings_1721966_26888695_20181216_043000.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>43450.1875</v>
+      </c>
+      <c r="B58" t="n">
+        <v>1677869</v>
+      </c>
+      <c r="C58" t="n">
+        <v>26888738</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>../recordings/2018/12/16/recordings_1677869_26888738_20181216_043000.wav</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>NW11</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>ZBISHW18</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>12</v>
+      </c>
+      <c r="I58" t="n">
+        <v>6</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2018/12/16/recordings_1677869_26888738_20181216_043000.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>43450.1875</v>
+      </c>
+      <c r="B59" t="n">
+        <v>7075920</v>
+      </c>
+      <c r="C59" t="n">
+        <v>26888793</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>../recordings/2018/12/16/recordings_7075920_26888793_20181216_043000.wav</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>N7</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>ZMAIDL12</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+      <c r="I59" t="n">
+        <v>15</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2018/12/16/recordings_7075920_26888793_20181216_043000.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>43450.1875</v>
+      </c>
+      <c r="B60" t="n">
+        <v>1764965</v>
+      </c>
+      <c r="C60" t="n">
+        <v>26888901</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>../recordings/2018/12/16/recordings_1764965_26888901_20181216_043000.wav</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>SE9</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>ZFRNBO29</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+      <c r="I60" t="n">
+        <v>3</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2018/12/16/recordings_1764965_26888901_20181216_043000.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>43450.1875</v>
+      </c>
+      <c r="B61" t="n">
+        <v>1699212</v>
+      </c>
+      <c r="C61" t="n">
+        <v>26889181</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>../recordings/2018/12/16/recordings_1699212_26889181_20181216_043000.wav</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>SE24</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>ZSTRMR08</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>13</v>
+      </c>
+      <c r="I61" t="n">
+        <v>7</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2018/12/16/recordings_1699212_26889181_20181216_043000.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>43450.1875</v>
+      </c>
+      <c r="B62" t="n">
+        <v>8494479</v>
+      </c>
+      <c r="C62" t="n">
+        <v>26889203</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>../recordings/2018/12/16/recordings_8494479_26889203_20181216_043000.wav</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>SW9</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>ZOVPRV08</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>19</v>
+      </c>
+      <c r="I62" t="n">
+        <v>20</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2018/12/16/recordings_8494479_26889203_20181216_043000.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>43450.1875</v>
+      </c>
+      <c r="B63" t="n">
+        <v>1700103</v>
+      </c>
+      <c r="C63" t="n">
+        <v>26889577</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>../recordings/2018/12/16/recordings_1700103_26889577_20181216_043000.wav</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>SE5</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>ZOVPRV08</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+      <c r="I63" t="n">
+        <v>15</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2018/12/16/recordings_1700103_26889577_20181216_043000.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>43450.1875</v>
+      </c>
+      <c r="B64" t="n">
+        <v>1711039</v>
+      </c>
+      <c r="C64" t="n">
+        <v>26892099</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>../recordings/2018/12/16/recordings_1711039_26892099_20181216_043000.wav</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>SE4</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>ZOXLWD39</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="n">
+        <v>12</v>
+      </c>
+      <c r="I64" t="n">
+        <v>7</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2018/12/16/recordings_1711039_26892099_20181216_043000.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>43450.1875</v>
+      </c>
+      <c r="B65" t="n">
+        <v>1765207</v>
+      </c>
+      <c r="C65" t="n">
+        <v>26892730</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>../recordings/2018/12/16/recordings_1765207_26892730_20181216_043000.wav</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>SE2</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>ZRIVSE13</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="n">
+        <v>11</v>
+      </c>
+      <c r="I65" t="n">
+        <v>3</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2018/12/16/recordings_1765207_26892730_20181216_043000.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>43450.1875</v>
+      </c>
+      <c r="B66" t="n">
+        <v>1647291</v>
+      </c>
+      <c r="C66" t="n">
+        <v>26893101</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>../recordings/2018/12/16/recordings_1647291_26893101_20181216_043000.wav</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>TW7</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>ZHAMCO25</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+      <c r="I66" t="n">
+        <v>3</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2018/12/16/recordings_1647291_26893101_20181216_043000.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>43450.1875</v>
+      </c>
+      <c r="B67" t="n">
+        <v>1643809</v>
+      </c>
+      <c r="C67" t="n">
+        <v>26893108</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>../recordings/2018/12/16/recordings_1643809_26893108_20181216_043000.wav</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>KT5</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>ZCHESS03</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+      <c r="I67" t="n">
+        <v>3</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2018/12/16/recordings_1643809_26893108_20181216_043000.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>43450.1875</v>
+      </c>
+      <c r="B68" t="n">
+        <v>1646001</v>
+      </c>
+      <c r="C68" t="n">
+        <v>26893123</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>../recordings/2018/12/16/recordings_1646001_26893123_20181216_043000.wav</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>W7</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>ZEALNG03</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="n">
+        <v>14</v>
+      </c>
+      <c r="I68" t="n">
+        <v>16</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2018/12/16/recordings_1646001_26893123_20181216_043000.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>43450.1875</v>
+      </c>
+      <c r="B69" t="n">
+        <v>6912572</v>
+      </c>
+      <c r="C69" t="n">
+        <v>26895089</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>../recordings/2018/12/16/recordings_6912572_26895089_20181216_043000.wav</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>SL3</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>ZSTKWD15</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>12</v>
+      </c>
+      <c r="I69" t="n">
+        <v>3</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2018/12/16/recordings_6912572_26895089_20181216_043000.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>43450.1875</v>
+      </c>
+      <c r="B70" t="n">
+        <v>1616795</v>
+      </c>
+      <c r="C70" t="n">
+        <v>26895360</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>../recordings/2018/12/16/recordings_1616795_26895360_20181216_043000.wav</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>HP12</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>ZWIDDN02</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="n">
+        <v>8</v>
+      </c>
+      <c r="I70" t="n">
+        <v>3</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2018/12/16/recordings_1616795_26895360_20181216_043000.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>43450.1875</v>
+      </c>
+      <c r="B71" t="n">
+        <v>1670068</v>
+      </c>
+      <c r="C71" t="n">
+        <v>26898832</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>../recordings/2018/12/16/recordings_1670068_26898832_20181216_043000.wav</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>SW12</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>ZSTRMR04</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+      <c r="I71" t="n">
+        <v>2</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2018/12/16/recordings_1670068_26898832_20181216_043000.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>43450.1875</v>
+      </c>
+      <c r="B72" t="n">
+        <v>1678532</v>
+      </c>
+      <c r="C72" t="n">
+        <v>26905467</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>../recordings/2018/12/16/recordings_1678532_26905467_20181216_043000.wav</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>W1S</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>ZSUHIL49</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="n">
+        <v>22</v>
+      </c>
+      <c r="I72" t="n">
+        <v>9</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2018/12/16/recordings_1678532_26905467_20181216_043000.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>43450.1875</v>
+      </c>
+      <c r="B73" t="n">
+        <v>1773242</v>
+      </c>
+      <c r="C73" t="n">
+        <v>26916149</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>../recordings/2018/12/16/recordings_1773242_26916149_20181216_043000.wav</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>IG10</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>ZCHIGW03</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="n">
+        <v>17</v>
+      </c>
+      <c r="I73" t="n">
+        <v>6</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2018/12/16/recordings_1773242_26916149_20181216_043000.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>43450.1875</v>
+      </c>
+      <c r="B74" t="n">
+        <v>1672354</v>
+      </c>
+      <c r="C74" t="n">
+        <v>26936250</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>../recordings/2018/12/16/recordings_1672354_26936250_20181216_043000.wav</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>NW10</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>ZSUHIL46</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="n">
+        <v>11</v>
+      </c>
+      <c r="I74" t="n">
+        <v>15</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2018/12/16/recordings_1672354_26936250_20181216_043000.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>43450.1875</v>
+      </c>
+      <c r="B75" t="n">
+        <v>1716911</v>
+      </c>
+      <c r="C75" t="n">
+        <v>26947347</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>../recordings/2018/12/16/recordings_1716911_26947347_20181216_043000.wav</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>SE23</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>ZBIPRV02</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
+      </c>
+      <c r="I75" t="n">
+        <v>20</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2018/12/16/recordings_1716911_26947347_20181216_043000.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>43450.1875</v>
+      </c>
+      <c r="B76" t="n">
+        <v>1782688</v>
+      </c>
+      <c r="C76" t="n">
+        <v>26949988</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>../recordings/2018/12/16/recordings_1782688_26949988_20181216_043000.wav</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>DA9</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>ZELTHM21</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" t="n">
+        <v>7</v>
+      </c>
+      <c r="I76" t="n">
+        <v>6</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2018/12/16/recordings_1782688_26949988_20181216_043000.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>43450.1875</v>
+      </c>
+      <c r="B77" t="n">
+        <v>1656184</v>
+      </c>
+      <c r="C77" t="n">
+        <v>26953060</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>../recordings/2018/12/16/recordings_1656184_26953060_20181216_043000.wav</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>CR4</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>ZRUSSH14</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" t="n">
+        <v>9</v>
+      </c>
+      <c r="I77" t="n">
+        <v>13</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2018/12/16/recordings_1656184_26953060_20181216_043000.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>43450.1875</v>
+      </c>
+      <c r="B78" t="n">
+        <v>1707657</v>
+      </c>
+      <c r="C78" t="n">
+        <v>26959604</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>../recordings/2018/12/16/recordings_1707657_26959604_20181216_043000.wav</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>SE21</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>ZHAM4216</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" t="n">
+        <v>17</v>
+      </c>
+      <c r="I78" t="n">
+        <v>21</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2018/12/16/recordings_1707657_26959604_20181216_043000.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>43450.1875</v>
+      </c>
+      <c r="B79" t="n">
+        <v>1688012</v>
+      </c>
+      <c r="C79" t="n">
+        <v>26990810</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>../recordings/2018/12/16/recordings_1688012_26990810_20181216_043000.wav</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>CR7</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>ZNORWD27</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" t="n">
+        <v>9</v>
+      </c>
+      <c r="I79" t="n">
+        <v>3</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2018/12/16/recordings_1688012_26990810_20181216_043000.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>43450.1875</v>
+      </c>
+      <c r="B80" t="n">
+        <v>1777340</v>
+      </c>
+      <c r="C80" t="n">
+        <v>27008631</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>../recordings/2018/12/16/recordings_1777340_27008631_20181216_043000.wav</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>E12</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>ZWOODF45</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" t="n">
+        <v>16</v>
+      </c>
+      <c r="I80" t="n">
+        <v>5</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2018/12/16/recordings_1777340_27008631_20181216_043000.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>43450.1875</v>
+      </c>
+      <c r="B81" t="n">
+        <v>1710533</v>
+      </c>
+      <c r="C81" t="n">
+        <v>27014785</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>../recordings/2018/12/16/recordings_1710533_27014785_20181216_043000.wav</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>SE19</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>ZCRYSB04</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" t="n">
+        <v>6</v>
+      </c>
+      <c r="I81" t="n">
+        <v>3</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2018/12/16/recordings_1710533_27014785_20181216_043000.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>43450.1875</v>
+      </c>
+      <c r="B82" t="n">
+        <v>1707333</v>
+      </c>
+      <c r="C82" t="n">
+        <v>27015194</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>../recordings/2018/12/16/recordings_1707333_27015194_20181216_043000.wav</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>SE14</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>ZNEWXP03</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" t="n">
+        <v>9</v>
+      </c>
+      <c r="I82" t="n">
+        <v>2</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2018/12/16/recordings_1707333_27015194_20181216_043000.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>43450.1875</v>
+      </c>
+      <c r="B83" t="n">
+        <v>1637348</v>
+      </c>
+      <c r="C83" t="n">
+        <v>27029568</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>../recordings/2018/12/16/recordings_1637348_27029568_20181216_043000.wav</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>SL3</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>ZSTKWD17</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="n">
+        <v>10</v>
+      </c>
+      <c r="I83" t="n">
+        <v>4</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2018/12/16/recordings_1637348_27029568_20181216_043000.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>43450.1875</v>
+      </c>
+      <c r="B84" t="n">
+        <v>1773173</v>
+      </c>
+      <c r="C84" t="n">
+        <v>27069315</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>../recordings/2018/12/16/recordings_1773173_27069315_20181216_043000.wav</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>E12</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>ZWOODF44</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>0</v>
+      </c>
+      <c r="H84" t="n">
+        <v>9</v>
+      </c>
+      <c r="I84" t="n">
+        <v>2</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2018/12/16/recordings_1773173_27069315_20181216_043000.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>43450.1875</v>
+      </c>
+      <c r="B85" t="n">
+        <v>1709975</v>
+      </c>
+      <c r="C85" t="n">
+        <v>27075144</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>../recordings/2018/12/16/recordings_1709975_27075144_20181216_043000.wav</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>SE5</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>ZHOPRV02</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" t="n">
+        <v>8</v>
+      </c>
+      <c r="I85" t="n">
+        <v>3</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2018/12/16/recordings_1709975_27075144_20181216_043000.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>43450.1875</v>
+      </c>
+      <c r="B86" t="n">
+        <v>7034923</v>
+      </c>
+      <c r="C86" t="n">
+        <v>27248654</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>../recordings/2018/12/16/recordings_7034923_27248654_20181216_043000.wav</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>BR1</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>ZBICLY11</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>0</v>
+      </c>
+      <c r="H86" t="n">
+        <v>9</v>
+      </c>
+      <c r="I86" t="n">
+        <v>7</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2018/12/16/recordings_7034923_27248654_20181216_043000.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>43450.1875</v>
+      </c>
+      <c r="B87" t="n">
+        <v>1713367</v>
+      </c>
+      <c r="C87" t="n">
+        <v>27412956</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>../recordings/2018/12/16/recordings_1713367_27412956_20181216_043000.wav</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>SE22</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>ZNORWD15</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" t="n">
+        <v>6</v>
+      </c>
+      <c r="I87" t="n">
+        <v>2</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2018/12/16/recordings_1713367_27412956_20181216_043000.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>44474.15625</v>
+      </c>
+      <c r="B88" t="n">
+        <v>1703843</v>
+      </c>
+      <c r="C88" t="n">
+        <v>146429826</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>../recordings/2021/10/05/recordings_1703843_146429826_20211005_034500.wav</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>SE19</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>ZCRYSB03</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>0</v>
+      </c>
+      <c r="H88" t="n">
+        <v>15</v>
+      </c>
+      <c r="I88" t="n">
+        <v>7</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2021/10/05/recordings_1703843_146429826_20211005_034500.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>44474.15625</v>
+      </c>
+      <c r="B89" t="n">
+        <v>1719141</v>
+      </c>
+      <c r="C89" t="n">
+        <v>146541205</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>../recordings/2021/10/05/recordings_1719141_146541205_20211005_034500.wav</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>WC1X</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>ZMAIDL59</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>0</v>
+      </c>
+      <c r="H89" t="n">
+        <v>17</v>
+      </c>
+      <c r="I89" t="n">
+        <v>18</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2021/10/05/recordings_1719141_146541205_20211005_034500.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>44474.15625</v>
+      </c>
+      <c r="B90" t="n">
+        <v>1744469</v>
+      </c>
+      <c r="C90" t="n">
+        <v>146545963</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>../recordings/2021/10/05/recordings_1744469_146545963_20211005_034500.wav</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>N13</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>ZSEWRD21</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H90" t="n">
+        <v>11</v>
+      </c>
+      <c r="I90" t="n">
+        <v>3</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2021/10/05/recordings_1744469_146545963_20211005_034500.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>44475.10416666666</v>
+      </c>
+      <c r="B91" t="n">
+        <v>1662620</v>
+      </c>
+      <c r="C91" t="n">
+        <v>146571698</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>../recordings/2021/10/06/recordings_1662620_146571698_20211006_023000.wav</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>SW11</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>ZHAM3013</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>0</v>
+      </c>
+      <c r="H91" t="n">
+        <v>15</v>
+      </c>
+      <c r="I91" t="n">
+        <v>12</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2021/10/06/recordings_1662620_146571698_20211006_023000.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>44475.15625</v>
+      </c>
+      <c r="B92" t="n">
+        <v>7524597</v>
+      </c>
+      <c r="C92" t="n">
+        <v>146584456</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>../recordings/2021/10/06/recordings_7524597_146584456_20211006_034500.wav</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>CR4</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>ZHAM4217</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>0</v>
+      </c>
+      <c r="H92" t="n">
+        <v>33</v>
+      </c>
+      <c r="I92" t="n">
+        <v>24</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2021/10/06/recordings_7524597_146584456_20211006_034500.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>44475.10416666666</v>
+      </c>
+      <c r="B93" t="n">
+        <v>7004675</v>
+      </c>
+      <c r="C93" t="n">
+        <v>146587570</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>../recordings/2021/10/06/recordings_7004675_146587570_20211006_023000.wav</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>W1G</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>ZSUHIL45</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" t="n">
+        <v>20</v>
+      </c>
+      <c r="I93" t="n">
+        <v>16</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2021/10/06/recordings_7004675_146587570_20211006_023000.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>44475.10416666666</v>
+      </c>
+      <c r="B94" t="n">
+        <v>1675661</v>
+      </c>
+      <c r="C94" t="n">
+        <v>146593012</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>../recordings/2021/10/06/recordings_1675661_146593012_20211006_023000.wav</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>NW2</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>ZSUHIL19</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>0</v>
+      </c>
+      <c r="H94" t="n">
+        <v>20</v>
+      </c>
+      <c r="I94" t="n">
+        <v>7</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2021/10/06/recordings_1675661_146593012_20211006_023000.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>44475.10416666666</v>
+      </c>
+      <c r="B95" t="n">
+        <v>1654376</v>
+      </c>
+      <c r="C95" t="n">
+        <v>146653663</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>../recordings/2021/10/06/recordings_1654376_146653663_20211006_023000.wav</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>SW19</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>ZHAM4204</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" t="n">
+        <v>28</v>
+      </c>
+      <c r="I95" t="n">
+        <v>18</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2021/10/06/recordings_1654376_146653663_20211006_023000.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>44475.15625</v>
+      </c>
+      <c r="B96" t="n">
+        <v>6909543</v>
+      </c>
+      <c r="C96" t="n">
+        <v>146654912</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>../recordings/2021/10/06/recordings_6909543_146654912_20211006_034500.wav</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>SL4</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>ZSTKWD02</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>0</v>
+      </c>
+      <c r="H96" t="n">
+        <v>23</v>
+      </c>
+      <c r="I96" t="n">
+        <v>12</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2021/10/06/recordings_6909543_146654912_20211006_034500.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>44475.10416666666</v>
+      </c>
+      <c r="B97" t="n">
+        <v>1677677</v>
+      </c>
+      <c r="C97" t="n">
+        <v>146688169</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>../recordings/2021/10/06/recordings_1677677_146688169_20211006_023000.wav</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>W10</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>ZBARHT20</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" t="n">
+        <v>11</v>
+      </c>
+      <c r="I97" t="n">
+        <v>16</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2021/10/06/recordings_1677677_146688169_20211006_023000.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>44475.10416666666</v>
+      </c>
+      <c r="B98" t="n">
+        <v>1642396</v>
+      </c>
+      <c r="C98" t="n">
+        <v>146690374</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>../recordings/2021/10/06/recordings_1642396_146690374_20211006_023000.wav</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>KT5</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>ZCHESS03</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>0</v>
+      </c>
+      <c r="H98" t="n">
+        <v>10</v>
+      </c>
+      <c r="I98" t="n">
+        <v>5</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2021/10/06/recordings_1642396_146690374_20211006_023000.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>44475.10416666666</v>
+      </c>
+      <c r="B99" t="n">
+        <v>1743295</v>
+      </c>
+      <c r="C99" t="n">
+        <v>146700248</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>../recordings/2021/10/06/recordings_1743295_146700248_20211006_023000.wav</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>E15</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>ZWOODF112</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>0</v>
+      </c>
+      <c r="H99" t="n">
+        <v>8</v>
+      </c>
+      <c r="I99" t="n">
+        <v>2</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2021/10/06/recordings_1743295_146700248_20211006_023000.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>44475.10416666666</v>
+      </c>
+      <c r="B100" t="n">
+        <v>1775117</v>
+      </c>
+      <c r="C100" t="n">
+        <v>146702194</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>../recordings/2021/10/06/recordings_1775117_146702194_20211006_023000.wav</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>DA5</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>ZELTHM08</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>0</v>
+      </c>
+      <c r="H100" t="n">
+        <v>12</v>
+      </c>
+      <c r="I100" t="n">
+        <v>10</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2021/10/06/recordings_1775117_146702194_20211006_023000.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>44475.10416666666</v>
+      </c>
+      <c r="B101" t="n">
+        <v>1684911</v>
+      </c>
+      <c r="C101" t="n">
+        <v>146726636</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>../recordings/2021/10/06/recordings_1684911_146726636_20211006_023000.wav</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>W1U</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>ZSUHIL45</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>0</v>
+      </c>
+      <c r="H101" t="n">
+        <v>10</v>
+      </c>
+      <c r="I101" t="n">
+        <v>3</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2021/10/06/recordings_1684911_146726636_20211006_023000.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>44458.10416666666</v>
+      </c>
+      <c r="B102" t="n">
+        <v>1696232</v>
+      </c>
+      <c r="C102" t="n">
+        <v>143856709</v>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>../recordings/2021/09/19/recordings_1696232_143856709_20210919_023000.wav</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>SW9</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>ZSSPRV01</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>1</v>
+      </c>
+      <c r="H102" t="n">
+        <v>22</v>
+      </c>
+      <c r="I102" t="n">
+        <v>4</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>Service Pipe</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2021/09/19/recordings_1696232_143856709_20210919_023000.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>44314.15625</v>
+      </c>
+      <c r="B103" t="n">
+        <v>1653598</v>
+      </c>
+      <c r="C103" t="n">
+        <v>120817984</v>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>../recordings/2021/04/28/recordings_1653598_120817984_20210428_034500.wav</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>W5</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>ZEALNG09</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>1</v>
+      </c>
+      <c r="H103" t="n">
+        <v>29</v>
+      </c>
+      <c r="I103" t="n">
+        <v>3</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2021/04/28/recordings_1653598_120817984_20210428_034500.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>43525.15625</v>
+      </c>
+      <c r="B104" t="n">
+        <v>1709144</v>
+      </c>
+      <c r="C104" t="n">
+        <v>31620322</v>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>../recordings/2019/03/01/recordings_1709144_31620322_20190301_034500.wav</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>SE5</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>ZHOPRV02</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
+        <v>1</v>
+      </c>
+      <c r="H104" t="n">
+        <v>6</v>
+      </c>
+      <c r="I104" t="n">
+        <v>5</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>Boundary Box</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2019/03/01/recordings_1709144_31620322_20190301_034500.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>44372.15625</v>
+      </c>
+      <c r="B105" t="n">
+        <v>1747861</v>
+      </c>
+      <c r="C105" t="n">
+        <v>129938024</v>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>../recordings/2021/06/25/recordings_1747861_129938024_20210625_034500.wav</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>N21</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>ZSEWRD67</t>
+        </is>
+      </c>
+      <c r="G105" t="n">
+        <v>1</v>
+      </c>
+      <c r="H105" t="n">
+        <v>22</v>
+      </c>
+      <c r="I105" t="n">
+        <v>4</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>Service Pipe</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2021/06/25/recordings_1747861_129938024_20210625_034500.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>43202.15625</v>
+      </c>
+      <c r="B106" t="n">
+        <v>1699506</v>
+      </c>
+      <c r="C106" t="n">
+        <v>13769941</v>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>../recordings/2018/04/12/recordings_1699506_13769941_20180412_034500.wav</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>CR0</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>ZWWICK03</t>
+        </is>
+      </c>
+      <c r="G106" t="n">
+        <v>1</v>
+      </c>
+      <c r="H106" t="n">
+        <v>20</v>
+      </c>
+      <c r="I106" t="n">
+        <v>3</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
           <t>Unstructured audio files/2018/04/12/recordings_1699506_13769941_20180412_034500.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>44547.15625</v>
+      </c>
+      <c r="B107" t="n">
+        <v>1710300</v>
+      </c>
+      <c r="C107" t="n">
+        <v>157681501</v>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>../recordings/2021/12/17/recordings_1710300_157681501_20211217_034500.wav</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>SE5</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>ZNUNHU01</t>
+        </is>
+      </c>
+      <c r="G107" t="n">
+        <v>1</v>
+      </c>
+      <c r="H107" t="n">
+        <v>20</v>
+      </c>
+      <c r="I107" t="n">
+        <v>4</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>Boundary Box</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2021/12/17/recordings_1710300_157681501_20211217_034500.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>43943.15625</v>
+      </c>
+      <c r="B108" t="n">
+        <v>1781817</v>
+      </c>
+      <c r="C108" t="n">
+        <v>71212990</v>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>../recordings/2020/04/22/recordings_1781817_71212990_20200422_034500.wav</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>IG10</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>ZCHIGW01</t>
+        </is>
+      </c>
+      <c r="G108" t="n">
+        <v>1</v>
+      </c>
+      <c r="H108" t="n">
+        <v>19</v>
+      </c>
+      <c r="I108" t="n">
+        <v>4</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>Main</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2020/04/22/recordings_1781817_71212990_20200422_034500.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>44516.15625</v>
+      </c>
+      <c r="B109" t="n">
+        <v>1684841</v>
+      </c>
+      <c r="C109" t="n">
+        <v>152975296</v>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>../recordings/2021/11/16/recordings_1684841_152975296_20211116_034500.wav</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>W1K</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>ZSUHIL49</t>
+        </is>
+      </c>
+      <c r="G109" t="n">
+        <v>1</v>
+      </c>
+      <c r="H109" t="n">
+        <v>26</v>
+      </c>
+      <c r="I109" t="n">
+        <v>7</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>Network Valve</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2021/11/16/recordings_1684841_152975296_20211116_034500.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>44198.15625</v>
+      </c>
+      <c r="B110" t="n">
+        <v>1683386</v>
+      </c>
+      <c r="C110" t="n">
+        <v>104942751</v>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>../recordings/2021/01/02/recordings_1683386_104942751_20210102_034500.wav</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>N7</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>ZMAIDL74</t>
+        </is>
+      </c>
+      <c r="G110" t="n">
+        <v>1</v>
+      </c>
+      <c r="H110" t="n">
+        <v>18</v>
+      </c>
+      <c r="I110" t="n">
+        <v>3</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2021/01/02/recordings_1683386_104942751_20210102_034500.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>43421.15625</v>
+      </c>
+      <c r="B111" t="n">
+        <v>1737889</v>
+      </c>
+      <c r="C111" t="n">
+        <v>25153158</v>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>../recordings/2018/11/17/recordings_1737889_25153158_20181117_034500.wav</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>E2</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>ZFINSB09</t>
+        </is>
+      </c>
+      <c r="G111" t="n">
+        <v>1</v>
+      </c>
+      <c r="H111" t="n">
+        <v>12</v>
+      </c>
+      <c r="I111" t="n">
+        <v>7</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>Service Pipe</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2018/11/17/recordings_1737889_25153158_20181117_034500.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>44207.15625</v>
+      </c>
+      <c r="B112" t="n">
+        <v>1711582</v>
+      </c>
+      <c r="C112" t="n">
+        <v>105963762</v>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>../recordings/2021/01/11/recordings_1711582_105963762_20210111_034500.wav</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>SE6</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>ZBIPRV04</t>
+        </is>
+      </c>
+      <c r="G112" t="n">
+        <v>1</v>
+      </c>
+      <c r="H112" t="n">
+        <v>22</v>
+      </c>
+      <c r="I112" t="n">
+        <v>4</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>Main</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2021/01/11/recordings_1711582_105963762_20210111_034500.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>43634.15625</v>
+      </c>
+      <c r="B113" t="n">
+        <v>1727080</v>
+      </c>
+      <c r="C113" t="n">
+        <v>39275207</v>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>../recordings/2019/06/18/recordings_1727080_39275207_20190618_034500.wav</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>EC2A</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>ZCRCHH31</t>
+        </is>
+      </c>
+      <c r="G113" t="n">
+        <v>1</v>
+      </c>
+      <c r="H113" t="n">
+        <v>12</v>
+      </c>
+      <c r="I113" t="n">
+        <v>8</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>Fire Hydrant</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2019/06/18/recordings_1727080_39275207_20190618_034500.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>44056.15625</v>
+      </c>
+      <c r="B114" t="n">
+        <v>1616839</v>
+      </c>
+      <c r="C114" t="n">
+        <v>86978703</v>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>../recordings/2020/08/13/recordings_1616839_86978703_20200813_034500.wav</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>HP11</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>ZBOWDN03</t>
+        </is>
+      </c>
+      <c r="G114" t="n">
+        <v>1</v>
+      </c>
+      <c r="H114" t="n">
+        <v>22</v>
+      </c>
+      <c r="I114" t="n">
+        <v>7</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2020/08/13/recordings_1616839_86978703_20200813_034500.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>43634.15625</v>
+      </c>
+      <c r="B115" t="n">
+        <v>1668051</v>
+      </c>
+      <c r="C115" t="n">
+        <v>39340210</v>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>../recordings/2019/06/18/recordings_1668051_39340210_20190618_034500.wav</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>SW17</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>ZNORWD05</t>
+        </is>
+      </c>
+      <c r="G115" t="n">
+        <v>1</v>
+      </c>
+      <c r="H115" t="n">
+        <v>16</v>
+      </c>
+      <c r="I115" t="n">
+        <v>5</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2019/06/18/recordings_1668051_39340210_20190618_034500.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>44094.15625</v>
+      </c>
+      <c r="B116" t="n">
+        <v>1677626</v>
+      </c>
+      <c r="C116" t="n">
+        <v>92068026</v>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>../recordings/2020/09/20/recordings_1677626_92068026_20200920_034500.wav</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>NW2</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>ZBISHW06</t>
+        </is>
+      </c>
+      <c r="G116" t="n">
+        <v>1</v>
+      </c>
+      <c r="H116" t="n">
+        <v>25</v>
+      </c>
+      <c r="I116" t="n">
+        <v>10</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2020/09/20/recordings_1677626_92068026_20200920_034500.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>44614.15625</v>
+      </c>
+      <c r="B117" t="n">
+        <v>1671397</v>
+      </c>
+      <c r="C117" t="n">
+        <v>168530702</v>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>../recordings/2022/02/22/recordings_1671397_168530702_20220222_034500.wav</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>SW1V</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>ZPUTNY22</t>
+        </is>
+      </c>
+      <c r="G117" t="n">
+        <v>1</v>
+      </c>
+      <c r="H117" t="n">
+        <v>23</v>
+      </c>
+      <c r="I117" t="n">
+        <v>4</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>Network Valve</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2022/02/22/recordings_1671397_168530702_20220222_034500.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>43665.15625</v>
+      </c>
+      <c r="B118" t="n">
+        <v>1616478</v>
+      </c>
+      <c r="C118" t="n">
+        <v>41928444</v>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>../recordings/2019/07/19/recordings_1616478_41928444_20190719_034500.wav</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>HP13</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>ZBOWDN04</t>
+        </is>
+      </c>
+      <c r="G118" t="n">
+        <v>1</v>
+      </c>
+      <c r="H118" t="n">
+        <v>22</v>
+      </c>
+      <c r="I118" t="n">
+        <v>27</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>Service Pipe</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2019/07/19/recordings_1616478_41928444_20190719_034500.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>43052.15625</v>
+      </c>
+      <c r="B119" t="n">
+        <v>1696954</v>
+      </c>
+      <c r="C119" t="n">
+        <v>9421856</v>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>../recordings/2017/11/13/recordings_1696954_9421856_20171113_034500.wav</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>SE25</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>ZNORWD19</t>
+        </is>
+      </c>
+      <c r="G119" t="n">
+        <v>1</v>
+      </c>
+      <c r="H119" t="n">
+        <v>34</v>
+      </c>
+      <c r="I119" t="n">
+        <v>4</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2017/11/13/recordings_1696954_9421856_20171113_034500.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>43992.15625</v>
+      </c>
+      <c r="B120" t="n">
+        <v>1757649</v>
+      </c>
+      <c r="C120" t="n">
+        <v>78100350</v>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>../recordings/2020/06/10/recordings_1757649_78100350_20200610_034500.wav</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>BR2</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>ZFRNBO19</t>
+        </is>
+      </c>
+      <c r="G120" t="n">
+        <v>1</v>
+      </c>
+      <c r="H120" t="n">
+        <v>26</v>
+      </c>
+      <c r="I120" t="n">
+        <v>3</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2020/06/10/recordings_1757649_78100350_20200610_034500.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>43024.15625</v>
+      </c>
+      <c r="B121" t="n">
+        <v>1705323</v>
+      </c>
+      <c r="C121" t="n">
+        <v>8651553</v>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>../recordings/2017/10/16/recordings_1705323_8651553_20171016_034500.wav</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>SE24</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>ZSTRMR08</t>
+        </is>
+      </c>
+      <c r="G121" t="n">
+        <v>1</v>
+      </c>
+      <c r="H121" t="n">
+        <v>5</v>
+      </c>
+      <c r="I121" t="n">
+        <v>4</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2017/10/16/recordings_1705323_8651553_20171016_034500.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>43710.15625</v>
+      </c>
+      <c r="B122" t="n">
+        <v>1632428</v>
+      </c>
+      <c r="C122" t="n">
+        <v>45997445</v>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>../recordings/2019/09/02/recordings_1632428_45997445_20190902_034500.wav</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>SL1</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>ZSTKWD26</t>
+        </is>
+      </c>
+      <c r="G122" t="n">
+        <v>1</v>
+      </c>
+      <c r="H122" t="n">
+        <v>21</v>
+      </c>
+      <c r="I122" t="n">
+        <v>7</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2019/09/02/recordings_1632428_45997445_20190902_034500.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>44379.10416666666</v>
+      </c>
+      <c r="B123" t="n">
+        <v>1670497</v>
+      </c>
+      <c r="C123" t="n">
+        <v>131022611</v>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>../recordings/2021/07/02/recordings_1670497_131022611_20210702_023000.wav</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>SW16</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>ZNORWD11</t>
+        </is>
+      </c>
+      <c r="G123" t="n">
+        <v>1</v>
+      </c>
+      <c r="H123" t="n">
+        <v>33</v>
+      </c>
+      <c r="I123" t="n">
+        <v>7</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2021/07/02/recordings_1670497_131022611_20210702_023000.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>44253.15625</v>
+      </c>
+      <c r="B124" t="n">
+        <v>1717894</v>
+      </c>
+      <c r="C124" t="n">
+        <v>111904151</v>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>../recordings/2021/02/26/recordings_1717894_111904151_20210226_034500.wav</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>SE23</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>ZNORWD17</t>
+        </is>
+      </c>
+      <c r="G124" t="n">
+        <v>1</v>
+      </c>
+      <c r="H124" t="n">
+        <v>15</v>
+      </c>
+      <c r="I124" t="n">
+        <v>3</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2021/02/26/recordings_1717894_111904151_20210226_034500.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>44044.15625</v>
+      </c>
+      <c r="B125" t="n">
+        <v>1613869</v>
+      </c>
+      <c r="C125" t="n">
+        <v>85327003</v>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>../recordings/2020/08/01/recordings_1613869_85327003_20200801_034500.wav</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>SL7</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>ZMARLC01</t>
+        </is>
+      </c>
+      <c r="G125" t="n">
+        <v>1</v>
+      </c>
+      <c r="H125" t="n">
+        <v>23</v>
+      </c>
+      <c r="I125" t="n">
+        <v>6</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2020/08/01/recordings_1613869_85327003_20200801_034500.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>43372.15625</v>
+      </c>
+      <c r="B126" t="n">
+        <v>1659004</v>
+      </c>
+      <c r="C126" t="n">
+        <v>22418013</v>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>../recordings/2018/09/29/recordings_1659004_22418013_20180929_034500.wav</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>SW15</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>ZHAM3639</t>
+        </is>
+      </c>
+      <c r="G126" t="n">
+        <v>1</v>
+      </c>
+      <c r="H126" t="n">
+        <v>49</v>
+      </c>
+      <c r="I126" t="n">
+        <v>6</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>Network Valve</t>
+        </is>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2018/09/29/recordings_1659004_22418013_20180929_034500.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>43450.1875</v>
+      </c>
+      <c r="B127" t="n">
+        <v>1769054</v>
+      </c>
+      <c r="C127" t="n">
+        <v>26888336</v>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>../recordings/2018/12/16/recordings_1769054_26888336_20181216_043000.wav</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>DA5</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>ZELTHM08</t>
+        </is>
+      </c>
+      <c r="G127" t="n">
+        <v>1</v>
+      </c>
+      <c r="H127" t="n">
+        <v>18</v>
+      </c>
+      <c r="I127" t="n">
+        <v>5</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2018/12/16/recordings_1769054_26888336_20181216_043000.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>43494.15625</v>
+      </c>
+      <c r="B128" t="n">
+        <v>1631708</v>
+      </c>
+      <c r="C128" t="n">
+        <v>30123489</v>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>../recordings/2019/01/29/recordings_1631708_30123489_20190129_034500.wav</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>SL1</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>ZSTKWD42</t>
+        </is>
+      </c>
+      <c r="G128" t="n">
+        <v>1</v>
+      </c>
+      <c r="H128" t="n">
+        <v>10</v>
+      </c>
+      <c r="I128" t="n">
+        <v>11</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2019/01/29/recordings_1631708_30123489_20190129_034500.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>44722.15625</v>
+      </c>
+      <c r="B129" t="n">
+        <v>1712183</v>
+      </c>
+      <c r="C129" t="n">
+        <v>185666480</v>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>../recordings/2022/06/10/recordings_1712183_185666480_20220610_034500.wav</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>SE4</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>ZOXLWD39</t>
+        </is>
+      </c>
+      <c r="G129" t="n">
+        <v>1</v>
+      </c>
+      <c r="H129" t="n">
+        <v>25</v>
+      </c>
+      <c r="I129" t="n">
+        <v>6</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>Service Pipe</t>
+        </is>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2022/06/10/recordings_1712183_185666480_20220610_034500.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>43612.15625</v>
+      </c>
+      <c r="B130" t="n">
+        <v>1679071</v>
+      </c>
+      <c r="C130" t="n">
+        <v>37593501</v>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>../recordings/2019/05/27/recordings_1679071_37593501_20190527_034500.wav</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>W1J</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>ZBARHT68</t>
+        </is>
+      </c>
+      <c r="G130" t="n">
+        <v>1</v>
+      </c>
+      <c r="H130" t="n">
+        <v>17</v>
+      </c>
+      <c r="I130" t="n">
+        <v>6</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>Fire Hydrant</t>
+        </is>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2019/05/27/recordings_1679071_37593501_20190527_034500.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>43020.15625</v>
+      </c>
+      <c r="B131" t="n">
+        <v>1759712</v>
+      </c>
+      <c r="C131" t="n">
+        <v>8526256</v>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>../recordings/2017/10/12/recordings_1759712_8526256_20171012_034500.wav</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>ZFARNH11</t>
+        </is>
+      </c>
+      <c r="G131" t="n">
+        <v>1</v>
+      </c>
+      <c r="H131" t="n">
+        <v>21</v>
+      </c>
+      <c r="I131" t="n">
+        <v>6</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>Service Pipe</t>
+        </is>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2017/10/12/recordings_1759712_8526256_20171012_034500.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>43388.15625</v>
+      </c>
+      <c r="B132" t="n">
+        <v>1618451</v>
+      </c>
+      <c r="C132" t="n">
+        <v>23368118</v>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>../recordings/2018/10/15/recordings_1618451_23368118_20181015_034500.wav</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>HP13</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>ZAMERH01</t>
+        </is>
+      </c>
+      <c r="G132" t="n">
+        <v>1</v>
+      </c>
+      <c r="H132" t="n">
+        <v>22</v>
+      </c>
+      <c r="I132" t="n">
+        <v>5</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>Boundary Box</t>
+        </is>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2018/10/15/recordings_1618451_23368118_20181015_034500.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>44075.15625</v>
+      </c>
+      <c r="B133" t="n">
+        <v>8121487</v>
+      </c>
+      <c r="C133" t="n">
+        <v>89543695</v>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>../recordings/2020/09/01/recordings_8121487_89543695_20200901_034500.wav</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>N1C</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>ZMAIDL19</t>
+        </is>
+      </c>
+      <c r="G133" t="n">
+        <v>1</v>
+      </c>
+      <c r="H133" t="n">
+        <v>30</v>
+      </c>
+      <c r="I133" t="n">
+        <v>8</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2020/09/01/recordings_8121487_89543695_20200901_034500.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>43069.15625</v>
+      </c>
+      <c r="B134" t="n">
+        <v>1660194</v>
+      </c>
+      <c r="C134" t="n">
+        <v>9899918</v>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>../recordings/2017/11/30/recordings_1660194_9899918_20171130_034500.wav</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>SW19</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>ZSUR3009</t>
+        </is>
+      </c>
+      <c r="G134" t="n">
+        <v>1</v>
+      </c>
+      <c r="H134" t="n">
+        <v>7</v>
+      </c>
+      <c r="I134" t="n">
+        <v>12</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>OSV</t>
+        </is>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2017/11/30/recordings_1660194_9899918_20171130_034500.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>43988.15625</v>
+      </c>
+      <c r="B135" t="n">
+        <v>1655894</v>
+      </c>
+      <c r="C135" t="n">
+        <v>77558543</v>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>../recordings/2020/06/06/recordings_1655894_77558543_20200606_034500.wav</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>SW19</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>ZHAM4204</t>
+        </is>
+      </c>
+      <c r="G135" t="n">
+        <v>1</v>
+      </c>
+      <c r="H135" t="n">
+        <v>44</v>
+      </c>
+      <c r="I135" t="n">
+        <v>27</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2020/06/06/recordings_1655894_77558543_20200606_034500.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>43619.15625</v>
+      </c>
+      <c r="B136" t="n">
+        <v>1618096</v>
+      </c>
+      <c r="C136" t="n">
+        <v>38165453</v>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>../recordings/2019/06/03/recordings_1618096_38165453_20190603_034500.wav</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>HP13</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>ZWIDDN34</t>
+        </is>
+      </c>
+      <c r="G136" t="n">
+        <v>1</v>
+      </c>
+      <c r="H136" t="n">
+        <v>22</v>
+      </c>
+      <c r="I136" t="n">
+        <v>8</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2019/06/03/recordings_1618096_38165453_20190603_034500.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>44510.10416666666</v>
+      </c>
+      <c r="B137" t="n">
+        <v>1777717</v>
+      </c>
+      <c r="C137" t="n">
+        <v>152154231</v>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>../recordings/2021/11/10/recordings_1777717_152154231_20211110_023000.wav</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>E12</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>ZWOODF44</t>
+        </is>
+      </c>
+      <c r="G137" t="n">
+        <v>1</v>
+      </c>
+      <c r="H137" t="n">
+        <v>20</v>
+      </c>
+      <c r="I137" t="n">
+        <v>5</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>Boundary Box</t>
+        </is>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2021/11/10/recordings_1777717_152154231_20211110_023000.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>43635.15625</v>
+      </c>
+      <c r="B138" t="n">
+        <v>1661669</v>
+      </c>
+      <c r="C138" t="n">
+        <v>39403430</v>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>../recordings/2019/06/19/recordings_1661669_39403430_20190619_034500.wav</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>ZBARHT07</t>
+        </is>
+      </c>
+      <c r="G138" t="n">
+        <v>1</v>
+      </c>
+      <c r="H138" t="n">
+        <v>14</v>
+      </c>
+      <c r="I138" t="n">
+        <v>5</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2019/06/19/recordings_1661669_39403430_20190619_034500.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>44419.15625</v>
+      </c>
+      <c r="B139" t="n">
+        <v>1695829</v>
+      </c>
+      <c r="C139" t="n">
+        <v>137563956</v>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>../recordings/2021/08/11/recordings_1695829_137563956_20210811_034500.wav</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>SW2</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>ZNORWD10</t>
+        </is>
+      </c>
+      <c r="G139" t="n">
+        <v>1</v>
+      </c>
+      <c r="H139" t="n">
+        <v>23</v>
+      </c>
+      <c r="I139" t="n">
+        <v>5</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2021/08/11/recordings_1695829_137563956_20210811_034500.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>43117.15625</v>
+      </c>
+      <c r="B140" t="n">
+        <v>1722647</v>
+      </c>
+      <c r="C140" t="n">
+        <v>11212805</v>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>../recordings/2018/01/17/recordings_1722647_11212805_20180117_034500.wav</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>SE13</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>ZOXLWD19</t>
+        </is>
+      </c>
+      <c r="G140" t="n">
+        <v>1</v>
+      </c>
+      <c r="H140" t="n">
+        <v>36</v>
+      </c>
+      <c r="I140" t="n">
+        <v>4</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2018/01/17/recordings_1722647_11212805_20180117_034500.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>43255.15625</v>
+      </c>
+      <c r="B141" t="n">
+        <v>1656184</v>
+      </c>
+      <c r="C141" t="n">
+        <v>16032222</v>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>../recordings/2018/06/04/recordings_1656184_16032222_20180604_034500.wav</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>CR4</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>ZRUSSH14</t>
+        </is>
+      </c>
+      <c r="G141" t="n">
+        <v>1</v>
+      </c>
+      <c r="H141" t="n">
+        <v>9</v>
+      </c>
+      <c r="I141" t="n">
+        <v>13</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>Service Pipe</t>
+        </is>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2018/06/04/recordings_1656184_16032222_20180604_034500.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>44008.15625</v>
+      </c>
+      <c r="B142" t="n">
+        <v>1687776</v>
+      </c>
+      <c r="C142" t="n">
+        <v>80374943</v>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>../recordings/2020/06/26/recordings_1687776_80374943_20200626_034500.wav</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>CR7</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>ZNORWD43</t>
+        </is>
+      </c>
+      <c r="G142" t="n">
+        <v>1</v>
+      </c>
+      <c r="H142" t="n">
+        <v>21</v>
+      </c>
+      <c r="I142" t="n">
+        <v>5</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>Ferrule</t>
+        </is>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2020/06/26/recordings_1687776_80374943_20200626_034500.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>43802.15625</v>
+      </c>
+      <c r="B143" t="n">
+        <v>1774759</v>
+      </c>
+      <c r="C143" t="n">
+        <v>54836040</v>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>../recordings/2019/12/03/recordings_1774759_54836040_20191203_034500.wav</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>DA5</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>ZELTHM08</t>
+        </is>
+      </c>
+      <c r="G143" t="n">
+        <v>1</v>
+      </c>
+      <c r="H143" t="n">
+        <v>27</v>
+      </c>
+      <c r="I143" t="n">
+        <v>9</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>Service Pipe</t>
+        </is>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2019/12/03/recordings_1774759_54836040_20191203_034500.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>43525.15625</v>
+      </c>
+      <c r="B144" t="n">
+        <v>1632453</v>
+      </c>
+      <c r="C144" t="n">
+        <v>31601630</v>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>../recordings/2019/03/01/recordings_1632453_31601630_20190301_034500.wav</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>SL1</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>ZSTKWD26</t>
+        </is>
+      </c>
+      <c r="G144" t="n">
+        <v>1</v>
+      </c>
+      <c r="H144" t="n">
+        <v>16</v>
+      </c>
+      <c r="I144" t="n">
+        <v>9</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2019/03/01/recordings_1632453_31601630_20190301_034500.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>43450.1875</v>
+      </c>
+      <c r="B145" t="n">
+        <v>1617267</v>
+      </c>
+      <c r="C145" t="n">
+        <v>26853036</v>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>../recordings/2018/12/16/recordings_1617267_26853036_20181216_043000.wav</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>HP12</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>ZWIDDN02</t>
+        </is>
+      </c>
+      <c r="G145" t="n">
+        <v>1</v>
+      </c>
+      <c r="H145" t="n">
+        <v>20</v>
+      </c>
+      <c r="I145" t="n">
+        <v>7</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2018/12/16/recordings_1617267_26853036_20181216_043000.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>43755.15625</v>
+      </c>
+      <c r="B146" t="n">
+        <v>1612841</v>
+      </c>
+      <c r="C146" t="n">
+        <v>50239831</v>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>../recordings/2019/10/17/recordings_1612841_50239831_20191017_034500.wav</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>SL7</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>ZMARLC01</t>
+        </is>
+      </c>
+      <c r="G146" t="n">
+        <v>1</v>
+      </c>
+      <c r="H146" t="n">
+        <v>41</v>
+      </c>
+      <c r="I146" t="n">
+        <v>9</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>Service Pipe</t>
+        </is>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2019/10/17/recordings_1612841_50239831_20191017_034500.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>44506.15625</v>
+      </c>
+      <c r="B147" t="n">
+        <v>1670960</v>
+      </c>
+      <c r="C147" t="n">
+        <v>151561854</v>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>../recordings/2021/11/06/recordings_1670960_151561854_20211106_034500.wav</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>NW2</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>ZBISHW06</t>
+        </is>
+      </c>
+      <c r="G147" t="n">
+        <v>1</v>
+      </c>
+      <c r="H147" t="n">
+        <v>25</v>
+      </c>
+      <c r="I147" t="n">
+        <v>4</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>Ferrule</t>
+        </is>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2021/11/06/recordings_1670960_151561854_20211106_034500.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>44393.15625</v>
+      </c>
+      <c r="B148" t="n">
+        <v>1669030</v>
+      </c>
+      <c r="C148" t="n">
+        <v>133280753</v>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>../recordings/2021/07/16/recordings_1669030_133280753_20210716_034500.wav</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>SW1V</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>ZPUTNY19</t>
+        </is>
+      </c>
+      <c r="G148" t="n">
+        <v>1</v>
+      </c>
+      <c r="H148" t="n">
+        <v>22</v>
+      </c>
+      <c r="I148" t="n">
+        <v>8</v>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>Main</t>
+        </is>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2021/07/16/recordings_1669030_133280753_20210716_034500.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>44163.15625</v>
+      </c>
+      <c r="B149" t="n">
+        <v>1704755</v>
+      </c>
+      <c r="C149" t="n">
+        <v>100821225</v>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>../recordings/2020/11/28/recordings_1704755_100821225_20201128_034500.wav</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>SW2</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>ZNORWD10</t>
+        </is>
+      </c>
+      <c r="G149" t="n">
+        <v>1</v>
+      </c>
+      <c r="H149" t="n">
+        <v>21</v>
+      </c>
+      <c r="I149" t="n">
+        <v>4</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2020/11/28/recordings_1704755_100821225_20201128_034500.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>44167.15625</v>
+      </c>
+      <c r="B150" t="n">
+        <v>1703262</v>
+      </c>
+      <c r="C150" t="n">
+        <v>101403352</v>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>../recordings/2020/12/02/recordings_1703262_101403352_20201202_034500.wav</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>SE22</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>ZHAM4216</t>
+        </is>
+      </c>
+      <c r="G150" t="n">
+        <v>1</v>
+      </c>
+      <c r="H150" t="n">
+        <v>25</v>
+      </c>
+      <c r="I150" t="n">
+        <v>7</v>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>Service Pipe</t>
+        </is>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2020/12/02/recordings_1703262_101403352_20201202_034500.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>43605.15625</v>
+      </c>
+      <c r="B151" t="n">
+        <v>1630937</v>
+      </c>
+      <c r="C151" t="n">
+        <v>37103422</v>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>../recordings/2019/05/20/recordings_1630937_37103422_20190520_034500.wav</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>SL1</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>ZSTKWD30</t>
+        </is>
+      </c>
+      <c r="G151" t="n">
+        <v>1</v>
+      </c>
+      <c r="H151" t="n">
+        <v>13</v>
+      </c>
+      <c r="I151" t="n">
+        <v>4</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2019/05/20/recordings_1630937_37103422_20190520_034500.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>43500.15625</v>
+      </c>
+      <c r="B152" t="n">
+        <v>1670672</v>
+      </c>
+      <c r="C152" t="n">
+        <v>29997604</v>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>../recordings/2019/02/04/recordings_1670672_29997604_20190204_034500.wav</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>NW11</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>ZKIDDP01</t>
+        </is>
+      </c>
+      <c r="G152" t="n">
+        <v>1</v>
+      </c>
+      <c r="H152" t="n">
+        <v>15</v>
+      </c>
+      <c r="I152" t="n">
+        <v>16</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2019/02/04/recordings_1670672_29997604_20190204_034500.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>43642.15625</v>
+      </c>
+      <c r="B153" t="n">
+        <v>1673863</v>
+      </c>
+      <c r="C153" t="n">
+        <v>39955828</v>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>../recordings/2019/06/26/recordings_1673863_39955828_20190626_034500.wav</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>NW10</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>ZSUHIL46</t>
+        </is>
+      </c>
+      <c r="G153" t="n">
+        <v>1</v>
+      </c>
+      <c r="H153" t="n">
+        <v>9</v>
+      </c>
+      <c r="I153" t="n">
+        <v>8</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2019/06/26/recordings_1673863_39955828_20190626_034500.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>43363.15625</v>
+      </c>
+      <c r="B154" t="n">
+        <v>1652449</v>
+      </c>
+      <c r="C154" t="n">
+        <v>21890577</v>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>../recordings/2018/09/20/recordings_1652449_21890577_20180920_034500.wav</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>W3</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>ZKEMPT09</t>
+        </is>
+      </c>
+      <c r="G154" t="n">
+        <v>1</v>
+      </c>
+      <c r="H154" t="n">
+        <v>15</v>
+      </c>
+      <c r="I154" t="n">
+        <v>17</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2018/09/20/recordings_1652449_21890577_20180920_034500.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>43987.15625</v>
+      </c>
+      <c r="B155" t="n">
+        <v>1684836</v>
+      </c>
+      <c r="C155" t="n">
+        <v>77429380</v>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>../recordings/2020/06/05/recordings_1684836_77429380_20200605_034500.wav</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>W1J</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>ZSUHIL48</t>
+        </is>
+      </c>
+      <c r="G155" t="n">
+        <v>1</v>
+      </c>
+      <c r="H155" t="n">
+        <v>24</v>
+      </c>
+      <c r="I155" t="n">
+        <v>8</v>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>Fire Hydrant</t>
+        </is>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2020/06/05/recordings_1684836_77429380_20200605_034500.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>44094.15625</v>
+      </c>
+      <c r="B156" t="n">
+        <v>1698444</v>
+      </c>
+      <c r="C156" t="n">
+        <v>92099275</v>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>../recordings/2020/09/20/recordings_1698444_92099275_20200920_034500.wav</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>SE19</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>ZCRYSB03</t>
+        </is>
+      </c>
+      <c r="G156" t="n">
+        <v>1</v>
+      </c>
+      <c r="H156" t="n">
+        <v>17</v>
+      </c>
+      <c r="I156" t="n">
+        <v>2</v>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>Main</t>
+        </is>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2020/09/20/recordings_1698444_92099275_20200920_034500.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>44083.15625</v>
+      </c>
+      <c r="B157" t="n">
+        <v>1630634</v>
+      </c>
+      <c r="C157" t="n">
+        <v>90522934</v>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>../recordings/2020/09/09/recordings_1630634_90522934_20200909_034500.wav</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>SL1</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>ZSTKWD36</t>
+        </is>
+      </c>
+      <c r="G157" t="n">
+        <v>1</v>
+      </c>
+      <c r="H157" t="n">
+        <v>25</v>
+      </c>
+      <c r="I157" t="n">
+        <v>4</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2020/09/09/recordings_1630634_90522934_20200909_034500.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>43457.15625</v>
+      </c>
+      <c r="B158" t="n">
+        <v>1631161</v>
+      </c>
+      <c r="C158" t="n">
+        <v>27305763</v>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>../recordings/2018/12/23/recordings_1631161_27305763_20181223_034500.wav</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>SL1</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>ZSTKWD36</t>
+        </is>
+      </c>
+      <c r="G158" t="n">
+        <v>1</v>
+      </c>
+      <c r="H158" t="n">
+        <v>13</v>
+      </c>
+      <c r="I158" t="n">
+        <v>10</v>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>Service Pipe</t>
+        </is>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2018/12/23/recordings_1631161_27305763_20181223_034500.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>43268.15625</v>
+      </c>
+      <c r="B159" t="n">
+        <v>6899843</v>
+      </c>
+      <c r="C159" t="n">
+        <v>16671273</v>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>../recordings/2018/06/17/recordings_6899843_16671273_20180617_034500.wav</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>HP13</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>ZAMERH01</t>
+        </is>
+      </c>
+      <c r="G159" t="n">
+        <v>1</v>
+      </c>
+      <c r="H159" t="n">
+        <v>32</v>
+      </c>
+      <c r="I159" t="n">
+        <v>4</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2018/06/17/recordings_6899843_16671273_20180617_034500.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>44281.15625</v>
+      </c>
+      <c r="B160" t="n">
+        <v>1709807</v>
+      </c>
+      <c r="C160" t="n">
+        <v>115781083</v>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>../recordings/2021/03/26/recordings_1709807_115781083_20210326_034500.wav</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>SE21</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>ZHAM4216</t>
+        </is>
+      </c>
+      <c r="G160" t="n">
+        <v>1</v>
+      </c>
+      <c r="H160" t="n">
+        <v>48</v>
+      </c>
+      <c r="I160" t="n">
+        <v>33</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2021/03/26/recordings_1709807_115781083_20210326_034500.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>44268.15625</v>
+      </c>
+      <c r="B161" t="n">
+        <v>1677611</v>
+      </c>
+      <c r="C161" t="n">
+        <v>113850620</v>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>../recordings/2021/03/13/recordings_1677611_113850620_20210313_034500.wav</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>NW4</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>ZBISHW18</t>
+        </is>
+      </c>
+      <c r="G161" t="n">
+        <v>1</v>
+      </c>
+      <c r="H161" t="n">
+        <v>34</v>
+      </c>
+      <c r="I161" t="n">
+        <v>3</v>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>Fire Hydrant</t>
+        </is>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2021/03/13/recordings_1677611_113850620_20210313_034500.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>43522.15625</v>
+      </c>
+      <c r="B162" t="n">
+        <v>1625672</v>
+      </c>
+      <c r="C162" t="n">
+        <v>31444551</v>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>../recordings/2019/02/26/recordings_1625672_31444551_20190226_034500.wav</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>HP10</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>ZHEDSR01</t>
+        </is>
+      </c>
+      <c r="G162" t="n">
+        <v>1</v>
+      </c>
+      <c r="H162" t="n">
+        <v>12</v>
+      </c>
+      <c r="I162" t="n">
+        <v>8</v>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>OSV</t>
+        </is>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2019/02/26/recordings_1625672_31444551_20190226_034500.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>44011.15625</v>
+      </c>
+      <c r="B163" t="n">
+        <v>1622694</v>
+      </c>
+      <c r="C163" t="n">
+        <v>81077735</v>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>../recordings/2020/06/29/recordings_1622694_81077735_20200629_034500.wav</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>GU2</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>ZPEWLY04</t>
+        </is>
+      </c>
+      <c r="G163" t="n">
+        <v>1</v>
+      </c>
+      <c r="H163" t="n">
+        <v>16</v>
+      </c>
+      <c r="I163" t="n">
+        <v>7</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2020/06/29/recordings_1622694_81077735_20200629_034500.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>44039.15625</v>
+      </c>
+      <c r="B164" t="n">
+        <v>1658997</v>
+      </c>
+      <c r="C164" t="n">
+        <v>84602715</v>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>../recordings/2020/07/27/recordings_1658997_84602715_20200727_034500.wav</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>SW11</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>ZHAM3014</t>
+        </is>
+      </c>
+      <c r="G164" t="n">
+        <v>1</v>
+      </c>
+      <c r="H164" t="n">
+        <v>22</v>
+      </c>
+      <c r="I164" t="n">
+        <v>5</v>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>Main</t>
+        </is>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2020/07/27/recordings_1658997_84602715_20200727_034500.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>44430.15625</v>
+      </c>
+      <c r="B165" t="n">
+        <v>1702528</v>
+      </c>
+      <c r="C165" t="n">
+        <v>139344697</v>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>../recordings/2021/08/22/recordings_1702528_139344697_20210822_034500.wav</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>CR0</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>ZWWICK03</t>
+        </is>
+      </c>
+      <c r="G165" t="n">
+        <v>1</v>
+      </c>
+      <c r="H165" t="n">
+        <v>21</v>
+      </c>
+      <c r="I165" t="n">
+        <v>7</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2021/08/22/recordings_1702528_139344697_20210822_034500.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>43345.15625</v>
+      </c>
+      <c r="B166" t="n">
+        <v>1651919</v>
+      </c>
+      <c r="C166" t="n">
+        <v>20864662</v>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>../recordings/2018/09/02/recordings_1651919_20864662_20180902_034500.wav</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>KT18</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>ZEPSOM04</t>
+        </is>
+      </c>
+      <c r="G166" t="n">
+        <v>1</v>
+      </c>
+      <c r="H166" t="n">
+        <v>5</v>
+      </c>
+      <c r="I166" t="n">
+        <v>3</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2018/09/02/recordings_1651919_20864662_20180902_034500.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>43398.15625</v>
+      </c>
+      <c r="B167" t="n">
+        <v>1624083</v>
+      </c>
+      <c r="C167" t="n">
+        <v>23905506</v>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>../recordings/2018/10/25/recordings_1624083_23905506_20181025_034500.wav</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>HP12</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>ZBOWDN03</t>
+        </is>
+      </c>
+      <c r="G167" t="n">
+        <v>1</v>
+      </c>
+      <c r="H167" t="n">
+        <v>19</v>
+      </c>
+      <c r="I167" t="n">
+        <v>21</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2018/10/25/recordings_1624083_23905506_20181025_034500.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>43384.15625</v>
+      </c>
+      <c r="B168" t="n">
+        <v>1717874</v>
+      </c>
+      <c r="C168" t="n">
+        <v>23122013</v>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>../recordings/2018/10/11/recordings_1717874_23122013_20181011_034500.wav</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>SE14</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>ZNEWXP03</t>
+        </is>
+      </c>
+      <c r="G168" t="n">
+        <v>1</v>
+      </c>
+      <c r="H168" t="n">
+        <v>21</v>
+      </c>
+      <c r="I168" t="n">
+        <v>6</v>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>Boundary Box</t>
+        </is>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2018/10/11/recordings_1717874_23122013_20181011_034500.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>43553.15625</v>
+      </c>
+      <c r="B169" t="n">
+        <v>1709249</v>
+      </c>
+      <c r="C169" t="n">
+        <v>34788183</v>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>../recordings/2019/03/29/recordings_1709249_34788183_20190329_034500.wav</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>SE24</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>ZHAM4216</t>
+        </is>
+      </c>
+      <c r="G169" t="n">
+        <v>1</v>
+      </c>
+      <c r="H169" t="n">
+        <v>8</v>
+      </c>
+      <c r="I169" t="n">
+        <v>4</v>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>Service Pipe</t>
+        </is>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2019/03/29/recordings_1709249_34788183_20190329_034500.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>43817.15625</v>
+      </c>
+      <c r="B170" t="n">
+        <v>1627068</v>
+      </c>
+      <c r="C170" t="n">
+        <v>56340389</v>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>../recordings/2019/12/18/recordings_1627068_56340389_20191218_034500.wav</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>HP10</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>ZHEDSR01</t>
+        </is>
+      </c>
+      <c r="G170" t="n">
+        <v>1</v>
+      </c>
+      <c r="H170" t="n">
+        <v>28</v>
+      </c>
+      <c r="I170" t="n">
+        <v>4</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2019/12/18/recordings_1627068_56340389_20191218_034500.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>44244.15625</v>
+      </c>
+      <c r="B171" t="n">
+        <v>1632682</v>
+      </c>
+      <c r="C171" t="n">
+        <v>110595741</v>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>../recordings/2021/02/17/recordings_1632682_110595741_20210217_034500.wav</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>SL2</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>ZSTKWD51</t>
+        </is>
+      </c>
+      <c r="G171" t="n">
+        <v>1</v>
+      </c>
+      <c r="H171" t="n">
+        <v>27</v>
+      </c>
+      <c r="I171" t="n">
+        <v>4</v>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>Service Pipe</t>
+        </is>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2021/02/17/recordings_1632682_110595741_20210217_034500.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>44480.15625</v>
+      </c>
+      <c r="B172" t="n">
+        <v>1668003</v>
+      </c>
+      <c r="C172" t="n">
+        <v>147425335</v>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>../recordings/2021/10/11/recordings_1668003_147425335_20211011_034500.wav</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>SW3</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>ZSUR3004</t>
+        </is>
+      </c>
+      <c r="G172" t="n">
+        <v>1</v>
+      </c>
+      <c r="H172" t="n">
+        <v>31</v>
+      </c>
+      <c r="I172" t="n">
+        <v>9</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2021/10/11/recordings_1668003_147425335_20211011_034500.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>44315.02083333334</v>
+      </c>
+      <c r="B173" t="n">
+        <v>1717495</v>
+      </c>
+      <c r="C173" t="n">
+        <v>121673604</v>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>../recordings/2021/04/29/recordings_1717495_121673604_20210429_003000.wav</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>SE14</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>ZOXLWD40</t>
+        </is>
+      </c>
+      <c r="G173" t="n">
+        <v>1</v>
+      </c>
+      <c r="H173" t="n">
+        <v>14</v>
+      </c>
+      <c r="I173" t="n">
+        <v>13</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2021/04/29/recordings_1717495_121673604_20210429_003000.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>43935.15625</v>
+      </c>
+      <c r="B174" t="n">
+        <v>1749174</v>
+      </c>
+      <c r="C174" t="n">
+        <v>70115324</v>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>../recordings/2020/04/14/recordings_1749174_70115324_20200414_034500.wav</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>EN1</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>ZSEWRD68</t>
+        </is>
+      </c>
+      <c r="G174" t="n">
+        <v>1</v>
+      </c>
+      <c r="H174" t="n">
+        <v>24</v>
+      </c>
+      <c r="I174" t="n">
+        <v>6</v>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>Washout</t>
+        </is>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2020/04/14/recordings_1749174_70115324_20200414_034500.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>43172.15625</v>
+      </c>
+      <c r="B175" t="n">
+        <v>1616964</v>
+      </c>
+      <c r="C175" t="n">
+        <v>12787653</v>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>../recordings/2018/03/13/recordings_1616964_12787653_20180313_034500.wav</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>HP13</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>ZWIDDN33</t>
+        </is>
+      </c>
+      <c r="G175" t="n">
+        <v>1</v>
+      </c>
+      <c r="H175" t="n">
+        <v>15</v>
+      </c>
+      <c r="I175" t="n">
+        <v>5</v>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>Service Pipe</t>
+        </is>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2018/03/13/recordings_1616964_12787653_20180313_034500.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>44510.10416666666</v>
+      </c>
+      <c r="B176" t="n">
+        <v>1722591</v>
+      </c>
+      <c r="C176" t="n">
+        <v>152147721</v>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>../recordings/2021/11/10/recordings_1722591_152147721_20211110_023000.wav</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>SE10</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>ZRIVSE03</t>
+        </is>
+      </c>
+      <c r="G176" t="n">
+        <v>1</v>
+      </c>
+      <c r="H176" t="n">
+        <v>19</v>
+      </c>
+      <c r="I176" t="n">
+        <v>16</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2021/11/10/recordings_1722591_152147721_20211110_023000.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>43203.15625</v>
+      </c>
+      <c r="B177" t="n">
+        <v>7027711</v>
+      </c>
+      <c r="C177" t="n">
+        <v>13902052</v>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>../recordings/2018/04/13/recordings_7027711_13902052_20180413_034500.wav</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>CR0</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>ZWWICK03</t>
+        </is>
+      </c>
+      <c r="G177" t="n">
+        <v>1</v>
+      </c>
+      <c r="H177" t="n">
+        <v>7</v>
+      </c>
+      <c r="I177" t="n">
+        <v>2</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2018/04/13/recordings_7027711_13902052_20180413_034500.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>43239.15625</v>
+      </c>
+      <c r="B178" t="n">
+        <v>1663525</v>
+      </c>
+      <c r="C178" t="n">
+        <v>15280056</v>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>../recordings/2018/05/19/recordings_1663525_15280056_20180519_034500.wav</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>SW6</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>ZPUTNY36</t>
+        </is>
+      </c>
+      <c r="G178" t="n">
+        <v>1</v>
+      </c>
+      <c r="H178" t="n">
+        <v>9</v>
+      </c>
+      <c r="I178" t="n">
+        <v>3</v>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>Washout</t>
+        </is>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2018/05/19/recordings_1663525_15280056_20180519_034500.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>43488.15625</v>
+      </c>
+      <c r="B179" t="n">
+        <v>1649849</v>
+      </c>
+      <c r="C179" t="n">
+        <v>29193088</v>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>../recordings/2019/01/23/recordings_1649849_29193088_20190123_034500.wav</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>W7</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>ZEALBS02</t>
+        </is>
+      </c>
+      <c r="G179" t="n">
+        <v>1</v>
+      </c>
+      <c r="H179" t="n">
+        <v>25</v>
+      </c>
+      <c r="I179" t="n">
+        <v>4</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2019/01/23/recordings_1649849_29193088_20190123_034500.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>44170.15625</v>
+      </c>
+      <c r="B180" t="n">
+        <v>1776592</v>
+      </c>
+      <c r="C180" t="n">
+        <v>101925066</v>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>../recordings/2020/12/05/recordings_1776592_101925066_20201205_034500.wav</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>DA5</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>ZELTHM31</t>
+        </is>
+      </c>
+      <c r="G180" t="n">
+        <v>1</v>
+      </c>
+      <c r="H180" t="n">
+        <v>20</v>
+      </c>
+      <c r="I180" t="n">
+        <v>6</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2020/12/05/recordings_1776592_101925066_20201205_034500.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>44167.15625</v>
+      </c>
+      <c r="B181" t="n">
+        <v>1688371</v>
+      </c>
+      <c r="C181" t="n">
+        <v>101247735</v>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>../recordings/2020/12/02/recordings_1688371_101247735_20201202_034500.wav</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>W1W</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>ZSUHIL11</t>
+        </is>
+      </c>
+      <c r="G181" t="n">
+        <v>1</v>
+      </c>
+      <c r="H181" t="n">
+        <v>25</v>
+      </c>
+      <c r="I181" t="n">
+        <v>5</v>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>Service Pipe</t>
+        </is>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2020/12/02/recordings_1688371_101247735_20201202_034500.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>44375.10416666666</v>
+      </c>
+      <c r="B182" t="n">
+        <v>1775933</v>
+      </c>
+      <c r="C182" t="n">
+        <v>130380443</v>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>../recordings/2021/06/28/recordings_1775933_130380443_20210628_023000.wav</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>DA8</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>ZRIVSE23</t>
+        </is>
+      </c>
+      <c r="G182" t="n">
+        <v>1</v>
+      </c>
+      <c r="H182" t="n">
+        <v>33</v>
+      </c>
+      <c r="I182" t="n">
+        <v>23</v>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>Boundary Box</t>
+        </is>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2021/06/28/recordings_1775933_130380443_20210628_023000.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>44390.15625</v>
+      </c>
+      <c r="B183" t="n">
+        <v>1719072</v>
+      </c>
+      <c r="C183" t="n">
+        <v>132739377</v>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>../recordings/2021/07/13/recordings_1719072_132739377_20210713_034500.wav</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>N7</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>ZMAIDL42</t>
+        </is>
+      </c>
+      <c r="G183" t="n">
+        <v>1</v>
+      </c>
+      <c r="H183" t="n">
+        <v>20</v>
+      </c>
+      <c r="I183" t="n">
+        <v>4</v>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>Service Pipe</t>
+        </is>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2021/07/13/recordings_1719072_132739377_20210713_034500.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>44469.15625</v>
+      </c>
+      <c r="B184" t="n">
+        <v>1706226</v>
+      </c>
+      <c r="C184" t="n">
+        <v>145729424</v>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>../recordings/2021/09/30/recordings_1706226_145729424_20210930_034500.wav</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>SW9</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>ZOVPRV09</t>
+        </is>
+      </c>
+      <c r="G184" t="n">
+        <v>1</v>
+      </c>
+      <c r="H184" t="n">
+        <v>45</v>
+      </c>
+      <c r="I184" t="n">
+        <v>2</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2021/09/30/recordings_1706226_145729424_20210930_034500.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>43688.15625</v>
+      </c>
+      <c r="B185" t="n">
+        <v>1655454</v>
+      </c>
+      <c r="C185" t="n">
+        <v>43945861</v>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>../recordings/2019/08/11/recordings_1655454_43945861_20190811_034500.wav</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>SW19</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>ZSUR3009</t>
+        </is>
+      </c>
+      <c r="G185" t="n">
+        <v>1</v>
+      </c>
+      <c r="H185" t="n">
+        <v>20</v>
+      </c>
+      <c r="I185" t="n">
+        <v>6</v>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>Service Pipe</t>
+        </is>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2019/08/11/recordings_1655454_43945861_20190811_034500.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>43647.15625</v>
+      </c>
+      <c r="B186" t="n">
+        <v>1739805</v>
+      </c>
+      <c r="C186" t="n">
+        <v>40376464</v>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>../recordings/2019/07/01/recordings_1739805_40376464_20190701_034500.wav</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>E17</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>ZWOODF105</t>
+        </is>
+      </c>
+      <c r="G186" t="n">
+        <v>1</v>
+      </c>
+      <c r="H186" t="n">
+        <v>9</v>
+      </c>
+      <c r="I186" t="n">
+        <v>3</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2019/07/01/recordings_1739805_40376464_20190701_034500.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>43208.15625</v>
+      </c>
+      <c r="B187" t="n">
+        <v>1699506</v>
+      </c>
+      <c r="C187" t="n">
+        <v>13998260</v>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>../recordings/2018/04/18/recordings_1699506_13998260_20180418_034500.wav</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>CR0</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>ZWWICK03</t>
+        </is>
+      </c>
+      <c r="G187" t="n">
+        <v>1</v>
+      </c>
+      <c r="H187" t="n">
+        <v>20</v>
+      </c>
+      <c r="I187" t="n">
+        <v>3</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2018/04/18/recordings_1699506_13998260_20180418_034500.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>43525.15625</v>
+      </c>
+      <c r="B188" t="n">
+        <v>1663155</v>
+      </c>
+      <c r="C188" t="n">
+        <v>31623155</v>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>../recordings/2019/03/01/recordings_1663155_31623155_20190301_034500.wav</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>SW6</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>ZPUTNY36</t>
+        </is>
+      </c>
+      <c r="G188" t="n">
+        <v>1</v>
+      </c>
+      <c r="H188" t="n">
+        <v>9</v>
+      </c>
+      <c r="I188" t="n">
+        <v>3</v>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>Boundary Box</t>
+        </is>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2019/03/01/recordings_1663155_31623155_20190301_034500.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>43658.15625</v>
+      </c>
+      <c r="B189" t="n">
+        <v>1616478</v>
+      </c>
+      <c r="C189" t="n">
+        <v>41328534</v>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>../recordings/2019/07/12/recordings_1616478_41328534_20190712_034500.wav</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>HP13</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>ZBOWDN04</t>
+        </is>
+      </c>
+      <c r="G189" t="n">
+        <v>1</v>
+      </c>
+      <c r="H189" t="n">
+        <v>22</v>
+      </c>
+      <c r="I189" t="n">
+        <v>27</v>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>Service Pipe</t>
+        </is>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2019/07/12/recordings_1616478_41328534_20190712_034500.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>43700.15625</v>
+      </c>
+      <c r="B190" t="n">
+        <v>1617255</v>
+      </c>
+      <c r="C190" t="n">
+        <v>45045468</v>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>../recordings/2019/08/23/recordings_1617255_45045468_20190823_034500.wav</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>HP11</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>ZBOWDN03</t>
+        </is>
+      </c>
+      <c r="G190" t="n">
+        <v>1</v>
+      </c>
+      <c r="H190" t="n">
+        <v>23</v>
+      </c>
+      <c r="I190" t="n">
+        <v>5</v>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>Repair</t>
+        </is>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2019/08/23/recordings_1617255_45045468_20190823_034500.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>43285.15625</v>
+      </c>
+      <c r="B191" t="n">
+        <v>1627761</v>
+      </c>
+      <c r="C191" t="n">
+        <v>17535528</v>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>../recordings/2018/07/04/recordings_1627761_17535528_20180704_034500.wav</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>GU2</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>ZPEWLY04</t>
+        </is>
+      </c>
+      <c r="G191" t="n">
+        <v>1</v>
+      </c>
+      <c r="H191" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>Boundary Box</t>
+        </is>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2018/07/04/recordings_1627761_17535528_20180704_034500.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>44405.15625</v>
+      </c>
+      <c r="B192" t="n">
+        <v>1718680</v>
+      </c>
+      <c r="C192" t="n">
+        <v>136474386</v>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>../recordings/2021/07/28/recordings_1718680_136474386_20210728_034500.wav</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>SE26</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>ZBIPRV04</t>
+        </is>
+      </c>
+      <c r="G192" t="n">
+        <v>1</v>
+      </c>
+      <c r="H192" t="n">
+        <v>21</v>
+      </c>
+      <c r="I192" t="n">
+        <v>5</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2021/07/28/recordings_1718680_136474386_20210728_034500.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>44155.15625</v>
+      </c>
+      <c r="B193" t="n">
+        <v>6963654</v>
+      </c>
+      <c r="C193" t="n">
+        <v>99818346</v>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>../recordings/2020/11/20/recordings_6963654_99818346_20201120_034500.wav</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>SW6</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>ZPUTNY32</t>
+        </is>
+      </c>
+      <c r="G193" t="n">
+        <v>1</v>
+      </c>
+      <c r="H193" t="n">
+        <v>26</v>
+      </c>
+      <c r="I193" t="n">
+        <v>3</v>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>Service Pipe</t>
+        </is>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2020/11/20/recordings_6963654_99818346_20201120_034500.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>44132.16666666666</v>
+      </c>
+      <c r="B194" t="n">
+        <v>1718032</v>
+      </c>
+      <c r="C194" t="n">
+        <v>96898812</v>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>../recordings/2020/10/28/recordings_1718032_96898812_20201028_040000.wav</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>SE4</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>ZOXLWD39</t>
+        </is>
+      </c>
+      <c r="G194" t="n">
+        <v>1</v>
+      </c>
+      <c r="H194" t="n">
+        <v>23</v>
+      </c>
+      <c r="I194" t="n">
+        <v>3</v>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>Fire Hydrant</t>
+        </is>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2020/10/28/recordings_1718032_96898812_20201028_040000.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>44238.15625</v>
+      </c>
+      <c r="B195" t="n">
+        <v>1705048</v>
+      </c>
+      <c r="C195" t="n">
+        <v>109737923</v>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>../recordings/2021/02/11/recordings_1705048_109737923_20210211_034500.wav</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>SW16</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>ZCRYST01</t>
+        </is>
+      </c>
+      <c r="G195" t="n">
+        <v>1</v>
+      </c>
+      <c r="H195" t="n">
+        <v>25</v>
+      </c>
+      <c r="I195" t="n">
+        <v>5</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2021/02/11/recordings_1705048_109737923_20210211_034500.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>43524.15625</v>
+      </c>
+      <c r="B196" t="n">
+        <v>1725854</v>
+      </c>
+      <c r="C196" t="n">
+        <v>31545643</v>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>../recordings/2019/02/28/recordings_1725854_31545643_20190228_034500.wav</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>ZMAIDL19</t>
+        </is>
+      </c>
+      <c r="G196" t="n">
+        <v>1</v>
+      </c>
+      <c r="H196" t="n">
+        <v>23</v>
+      </c>
+      <c r="I196" t="n">
+        <v>9</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2019/02/28/recordings_1725854_31545643_20190228_034500.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>43999.15625</v>
+      </c>
+      <c r="B197" t="n">
+        <v>1679958</v>
+      </c>
+      <c r="C197" t="n">
+        <v>79186512</v>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>../recordings/2020/06/17/recordings_1679958_79186512_20200617_034500.wav</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>NW6</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>ZBISHW21</t>
+        </is>
+      </c>
+      <c r="G197" t="n">
+        <v>1</v>
+      </c>
+      <c r="H197" t="n">
+        <v>30</v>
+      </c>
+      <c r="I197" t="n">
+        <v>3</v>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>Service Pipe</t>
+        </is>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2020/06/17/recordings_1679958_79186512_20200617_034500.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>43365.15625</v>
+      </c>
+      <c r="B198" t="n">
+        <v>1740274</v>
+      </c>
+      <c r="C198" t="n">
+        <v>22025092</v>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>../recordings/2018/09/22/recordings_1740274_22025092_20180922_034500.wav</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>E17</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>ZWOODF93</t>
+        </is>
+      </c>
+      <c r="G198" t="n">
+        <v>1</v>
+      </c>
+      <c r="H198" t="n">
+        <v>8</v>
+      </c>
+      <c r="I198" t="n">
+        <v>3</v>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>Service Pipe</t>
+        </is>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2018/09/22/recordings_1740274_22025092_20180922_034500.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>44455.15625</v>
+      </c>
+      <c r="B199" t="n">
+        <v>1693729</v>
+      </c>
+      <c r="C199" t="n">
+        <v>143443777</v>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>../recordings/2021/09/16/recordings_1693729_143443777_20210916_034500.wav</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>SW16</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>ZRUSSH21</t>
+        </is>
+      </c>
+      <c r="G199" t="n">
+        <v>1</v>
+      </c>
+      <c r="H199" t="n">
+        <v>9</v>
+      </c>
+      <c r="I199" t="n">
+        <v>12</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2021/09/16/recordings_1693729_143443777_20210916_034500.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>44360.15625</v>
+      </c>
+      <c r="B200" t="n">
+        <v>1766435</v>
+      </c>
+      <c r="C200" t="n">
+        <v>129813889</v>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>../recordings/2021/06/13/recordings_1766435_129813889_20210613_034500.wav</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>SE18</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>ZOXLWD07</t>
+        </is>
+      </c>
+      <c r="G200" t="n">
+        <v>1</v>
+      </c>
+      <c r="H200" t="n">
+        <v>27</v>
+      </c>
+      <c r="I200" t="n">
+        <v>13</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2021/06/13/recordings_1766435_129813889_20210613_034500.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>42980.15625</v>
+      </c>
+      <c r="B201" t="n">
+        <v>1703374</v>
+      </c>
+      <c r="C201" t="n">
+        <v>7354062</v>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>../recordings/2017/09/02/recordings_1703374_7354062_20170902_034500.wav</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>ZBEPRV01</t>
+        </is>
+      </c>
+      <c r="G201" t="n">
+        <v>1</v>
+      </c>
+      <c r="H201" t="n">
+        <v>5</v>
+      </c>
+      <c r="I201" t="n">
+        <v>3</v>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>Service Pipe</t>
+        </is>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>Unstructured audio files/2017/09/02/recordings_1703374_7354062_20170902_034500.wav</t>
         </is>
       </c>
     </row>
